--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>19304.16805796043</v>
+        <v>19606.01741818413</v>
       </c>
       <c r="AB2" t="n">
-        <v>26412.81437669196</v>
+        <v>26825.81798800416</v>
       </c>
       <c r="AC2" t="n">
-        <v>23892.01244319728</v>
+        <v>24265.59956949992</v>
       </c>
       <c r="AD2" t="n">
-        <v>19304168.05796042</v>
+        <v>19606017.41818413</v>
       </c>
       <c r="AE2" t="n">
-        <v>26412814.37669196</v>
+        <v>26825817.98800416</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.648569531909897e-07</v>
+        <v>6.168087821853242e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.52777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>23892012.44319728</v>
+        <v>24265599.56949992</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6394.326961568627</v>
+        <v>6550.373632436747</v>
       </c>
       <c r="AB3" t="n">
-        <v>8749.000246614776</v>
+        <v>8962.510185989802</v>
       </c>
       <c r="AC3" t="n">
-        <v>7914.007942376499</v>
+        <v>8107.140792800647</v>
       </c>
       <c r="AD3" t="n">
-        <v>6394326.961568627</v>
+        <v>6550373.632436748</v>
       </c>
       <c r="AE3" t="n">
-        <v>8749000.246614777</v>
+        <v>8962510.185989803</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.887203822529638e-07</v>
+        <v>1.164315977887611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.42222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>7914007.942376499</v>
+        <v>8107140.792800646</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4909.157313605458</v>
+        <v>5044.375016064416</v>
       </c>
       <c r="AB4" t="n">
-        <v>6716.925613210828</v>
+        <v>6901.936439099204</v>
       </c>
       <c r="AC4" t="n">
-        <v>6075.87165995004</v>
+        <v>6243.225312279947</v>
       </c>
       <c r="AD4" t="n">
-        <v>4909157.313605458</v>
+        <v>5044375.016064416</v>
       </c>
       <c r="AE4" t="n">
-        <v>6716925.613210828</v>
+        <v>6901936.439099204</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.077620750973652e-07</v>
+        <v>1.365561866037641e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>6075871.65995004</v>
+        <v>6243225.312279946</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4323.619328193498</v>
+        <v>4448.422546447878</v>
       </c>
       <c r="AB5" t="n">
-        <v>5915.766709457364</v>
+        <v>6086.527978602414</v>
       </c>
       <c r="AC5" t="n">
-        <v>5351.174237537253</v>
+        <v>5505.638290820039</v>
       </c>
       <c r="AD5" t="n">
-        <v>4323619.328193499</v>
+        <v>4448422.546447878</v>
       </c>
       <c r="AE5" t="n">
-        <v>5915766.709457364</v>
+        <v>6086527.978602414</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.709300322072007e-07</v>
+        <v>1.47235043168588e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.2625</v>
       </c>
       <c r="AH5" t="n">
-        <v>5351174.237537254</v>
+        <v>5505638.29082004</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4002.712231134506</v>
+        <v>4117.186306038873</v>
       </c>
       <c r="AB6" t="n">
-        <v>5476.687461839282</v>
+        <v>5633.315941363204</v>
       </c>
       <c r="AC6" t="n">
-        <v>4954.000097060262</v>
+        <v>5095.680174327868</v>
       </c>
       <c r="AD6" t="n">
-        <v>4002712.231134505</v>
+        <v>4117186.306038873</v>
       </c>
       <c r="AE6" t="n">
-        <v>5476687.461839282</v>
+        <v>5633315.941363204</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.106105964886677e-07</v>
+        <v>1.539432394402556e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.25277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>4954000.097060262</v>
+        <v>5095680.174327868</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3794.925205976921</v>
+        <v>3909.484532227311</v>
       </c>
       <c r="AB7" t="n">
-        <v>5192.384087102078</v>
+        <v>5349.129211278649</v>
       </c>
       <c r="AC7" t="n">
-        <v>4696.830237385695</v>
+        <v>4838.615826904013</v>
       </c>
       <c r="AD7" t="n">
-        <v>3794925.205976921</v>
+        <v>3909484.532227311</v>
       </c>
       <c r="AE7" t="n">
-        <v>5192384.087102078</v>
+        <v>5349129.211278649</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.370156778671439e-07</v>
+        <v>1.584071494592698e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.62222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>4696830.237385695</v>
+        <v>4838615.826904014</v>
       </c>
     </row>
     <row r="8">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3649.11891915489</v>
+        <v>3763.507653204687</v>
       </c>
       <c r="AB8" t="n">
-        <v>4992.885492952773</v>
+        <v>5149.397205354499</v>
       </c>
       <c r="AC8" t="n">
-        <v>4516.371509063973</v>
+        <v>4657.94596329964</v>
       </c>
       <c r="AD8" t="n">
-        <v>3649118.91915489</v>
+        <v>3763507.653204687</v>
       </c>
       <c r="AE8" t="n">
-        <v>4992885.492952773</v>
+        <v>5149397.205354499</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.568559600078776e-07</v>
+        <v>1.617612475951036e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.17638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>4516371.509063973</v>
+        <v>4657945.96329964</v>
       </c>
     </row>
     <row r="9">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3526.845813869936</v>
+        <v>3641.319799265753</v>
       </c>
       <c r="AB9" t="n">
-        <v>4825.586035993194</v>
+        <v>4982.214393047568</v>
       </c>
       <c r="AC9" t="n">
-        <v>4365.038877470362</v>
+        <v>4506.718843956739</v>
       </c>
       <c r="AD9" t="n">
-        <v>3526845.813869935</v>
+        <v>3641319.799265753</v>
       </c>
       <c r="AE9" t="n">
-        <v>4825586.035993194</v>
+        <v>4982214.393047567</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.718820560409332e-07</v>
+        <v>1.643014836832719e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.84722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>4365038.877470361</v>
+        <v>4506718.843956739</v>
       </c>
     </row>
     <row r="10">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3438.314309436959</v>
+        <v>3552.788294832777</v>
       </c>
       <c r="AB10" t="n">
-        <v>4704.453325893666</v>
+        <v>4861.081682948041</v>
       </c>
       <c r="AC10" t="n">
-        <v>4255.466903211909</v>
+        <v>4397.146869698288</v>
       </c>
       <c r="AD10" t="n">
-        <v>3438314.309436959</v>
+        <v>3552788.294832777</v>
       </c>
       <c r="AE10" t="n">
-        <v>4704453.325893667</v>
+        <v>4861081.682948041</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.834069258138593e-07</v>
+        <v>1.662498201004107e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.60555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>4255466.903211909</v>
+        <v>4397146.869698288</v>
       </c>
     </row>
     <row r="11">
@@ -6756,28 +6756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3356.978949092082</v>
+        <v>3461.03853979187</v>
       </c>
       <c r="AB11" t="n">
-        <v>4593.166697606949</v>
+        <v>4735.545620387546</v>
       </c>
       <c r="AC11" t="n">
-        <v>4154.801314537115</v>
+        <v>4283.591792757601</v>
       </c>
       <c r="AD11" t="n">
-        <v>3356978.949092082</v>
+        <v>3461038.53979187</v>
       </c>
       <c r="AE11" t="n">
-        <v>4593166.697606949</v>
+        <v>4735545.620387547</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.931811824567206e-07</v>
+        <v>1.679022066820346e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.40138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>4154801.314537115</v>
+        <v>4283591.792757601</v>
       </c>
     </row>
     <row r="12">
@@ -6862,28 +6862,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3290.812897688875</v>
+        <v>3394.872488388663</v>
       </c>
       <c r="AB12" t="n">
-        <v>4502.635387036903</v>
+        <v>4645.0143098175</v>
       </c>
       <c r="AC12" t="n">
-        <v>4072.910185186386</v>
+        <v>4201.700663406871</v>
       </c>
       <c r="AD12" t="n">
-        <v>3290812.897688875</v>
+        <v>3394872.488388663</v>
       </c>
       <c r="AE12" t="n">
-        <v>4502635.387036903</v>
+        <v>4645014.3098175</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.000767172687001e-06</v>
+        <v>1.691846559692653e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.24722222222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>4072910.185186386</v>
+        <v>4201700.663406871</v>
       </c>
     </row>
     <row r="13">
@@ -6968,28 +6968,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3224.153813416784</v>
+        <v>3328.213404116572</v>
       </c>
       <c r="AB13" t="n">
-        <v>4411.429487144575</v>
+        <v>4553.808409925174</v>
       </c>
       <c r="AC13" t="n">
-        <v>3990.408848371502</v>
+        <v>4119.199326591988</v>
       </c>
       <c r="AD13" t="n">
-        <v>3224153.813416785</v>
+        <v>3328213.404116572</v>
       </c>
       <c r="AE13" t="n">
-        <v>4411429.487144575</v>
+        <v>4553808.409925174</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.007477856352249e-06</v>
+        <v>1.703191303387385e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>3990408.848371502</v>
+        <v>4119199.326591989</v>
       </c>
     </row>
     <row r="14">
@@ -7074,28 +7074,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3157.959875253408</v>
+        <v>3272.348519794654</v>
       </c>
       <c r="AB14" t="n">
-        <v>4320.860020678989</v>
+        <v>4477.371610611165</v>
       </c>
       <c r="AC14" t="n">
-        <v>3908.48320467035</v>
+        <v>4050.057548124789</v>
       </c>
       <c r="AD14" t="n">
-        <v>3157959.875253408</v>
+        <v>3272348.519794654</v>
       </c>
       <c r="AE14" t="n">
-        <v>4320860.020678989</v>
+        <v>4477371.610611165</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.013313233452465e-06</v>
+        <v>1.713056297904543e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.99583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3908483.20467035</v>
+        <v>4050057.548124789</v>
       </c>
     </row>
     <row r="15">
@@ -7180,28 +7180,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3107.256265656854</v>
+        <v>3221.6449101981</v>
       </c>
       <c r="AB15" t="n">
-        <v>4251.485105143596</v>
+        <v>4407.996695075773</v>
       </c>
       <c r="AC15" t="n">
-        <v>3845.729333705352</v>
+        <v>3987.303677159793</v>
       </c>
       <c r="AD15" t="n">
-        <v>3107256.265656854</v>
+        <v>3221644.9101981</v>
       </c>
       <c r="AE15" t="n">
-        <v>4251485.105143596</v>
+        <v>4407996.695075774</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.017835650705132e-06</v>
+        <v>1.72070166865534e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.90694444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>3845729.333705352</v>
+        <v>3987303.677159793</v>
       </c>
     </row>
     <row r="16">
@@ -7286,28 +7286,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3053.06588072949</v>
+        <v>3167.454525270735</v>
       </c>
       <c r="AB16" t="n">
-        <v>4177.339429774917</v>
+        <v>4333.851019707094</v>
       </c>
       <c r="AC16" t="n">
-        <v>3778.660017529754</v>
+        <v>3920.234360984194</v>
       </c>
       <c r="AD16" t="n">
-        <v>3053065.88072949</v>
+        <v>3167454.525270735</v>
       </c>
       <c r="AE16" t="n">
-        <v>4177339.429774917</v>
+        <v>4333851.019707094</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.022066299102788e-06</v>
+        <v>1.72785378968028e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.82361111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>3778660.017529754</v>
+        <v>3920234.360984194</v>
       </c>
     </row>
     <row r="17">
@@ -7392,28 +7392,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2999.694361202767</v>
+        <v>3103.839203248575</v>
       </c>
       <c r="AB17" t="n">
-        <v>4104.314162173187</v>
+        <v>4246.809729606434</v>
       </c>
       <c r="AC17" t="n">
-        <v>3712.604178976329</v>
+        <v>3841.500169447527</v>
       </c>
       <c r="AD17" t="n">
-        <v>2999694.361202767</v>
+        <v>3103839.203248575</v>
       </c>
       <c r="AE17" t="n">
-        <v>4104314.162173187</v>
+        <v>4246809.729606435</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.025713409790423e-06</v>
+        <v>1.734019411253504e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.75277777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>3712604.178976329</v>
+        <v>3841500.169447527</v>
       </c>
     </row>
     <row r="18">
@@ -7498,28 +7498,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2950.884315491736</v>
+        <v>3055.029157537544</v>
       </c>
       <c r="AB18" t="n">
-        <v>4037.53010428411</v>
+        <v>4180.025671717357</v>
       </c>
       <c r="AC18" t="n">
-        <v>3652.193897840174</v>
+        <v>3781.089888311372</v>
       </c>
       <c r="AD18" t="n">
-        <v>2950884.315491736</v>
+        <v>3055029.157537544</v>
       </c>
       <c r="AE18" t="n">
-        <v>4037530.10428411</v>
+        <v>4180025.671717357</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.029360520478058e-06</v>
+        <v>1.740185032826728e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.68333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>3652193.897840173</v>
+        <v>3781089.888311372</v>
       </c>
     </row>
     <row r="19">
@@ -7604,28 +7604,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2921.656097489958</v>
+        <v>3025.800939535766</v>
       </c>
       <c r="AB19" t="n">
-        <v>3997.538766956101</v>
+        <v>4140.034334389349</v>
       </c>
       <c r="AC19" t="n">
-        <v>3616.019277618558</v>
+        <v>3744.915268089756</v>
       </c>
       <c r="AD19" t="n">
-        <v>2921656.097489958</v>
+        <v>3025800.939535766</v>
       </c>
       <c r="AE19" t="n">
-        <v>3997538.766956102</v>
+        <v>4140034.334389349</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.031257018035628e-06</v>
+        <v>1.743391156044804e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.64861111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>3616019.277618558</v>
+        <v>3744915.268089755</v>
       </c>
     </row>
     <row r="20">
@@ -7710,28 +7710,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2911.764658531024</v>
+        <v>3015.909500576832</v>
       </c>
       <c r="AB20" t="n">
-        <v>3984.004863792999</v>
+        <v>4126.500431226246</v>
       </c>
       <c r="AC20" t="n">
-        <v>3603.77703117839</v>
+        <v>3732.673021649588</v>
       </c>
       <c r="AD20" t="n">
-        <v>2911764.658531024</v>
+        <v>3015909.500576832</v>
       </c>
       <c r="AE20" t="n">
-        <v>3984004.863792999</v>
+        <v>4126500.431226247</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.032132324600661e-06</v>
+        <v>1.744870905222379e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.63055555555556</v>
       </c>
       <c r="AH20" t="n">
-        <v>3603777.03117839</v>
+        <v>3732673.021649588</v>
       </c>
     </row>
     <row r="21">
@@ -7816,28 +7816,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2917.680507507435</v>
+        <v>3021.825349553244</v>
       </c>
       <c r="AB21" t="n">
-        <v>3992.099189351362</v>
+        <v>4134.594756784611</v>
       </c>
       <c r="AC21" t="n">
-        <v>3611.09884566592</v>
+        <v>3739.994836137118</v>
       </c>
       <c r="AD21" t="n">
-        <v>2917680.507507435</v>
+        <v>3021825.349553244</v>
       </c>
       <c r="AE21" t="n">
-        <v>3992099.189351362</v>
+        <v>4134594.75678461</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.032715862310682e-06</v>
+        <v>1.745857404674094e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.62083333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>3611098.84566592</v>
+        <v>3739994.836137118</v>
       </c>
     </row>
     <row r="22">
@@ -7922,28 +7922,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>2929.57455793094</v>
+        <v>3033.719399976748</v>
       </c>
       <c r="AB22" t="n">
-        <v>4008.373153869273</v>
+        <v>4150.86872130252</v>
       </c>
       <c r="AC22" t="n">
-        <v>3625.819645850893</v>
+        <v>3754.715636322091</v>
       </c>
       <c r="AD22" t="n">
-        <v>2929574.55793094</v>
+        <v>3033719.399976748</v>
       </c>
       <c r="AE22" t="n">
-        <v>4008373.153869273</v>
+        <v>4150868.72130252</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.032715862310682e-06</v>
+        <v>1.745857404674094e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.62083333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>3625819.645850893</v>
+        <v>3754715.636322091</v>
       </c>
     </row>
     <row r="23">
@@ -8028,28 +8028,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>2943.19513155201</v>
+        <v>3047.339973597818</v>
       </c>
       <c r="AB23" t="n">
-        <v>4027.009423594921</v>
+        <v>4169.504991028169</v>
       </c>
       <c r="AC23" t="n">
-        <v>3642.677296150093</v>
+        <v>3771.573286621291</v>
       </c>
       <c r="AD23" t="n">
-        <v>2943195.131552009</v>
+        <v>3047339.973597818</v>
       </c>
       <c r="AE23" t="n">
-        <v>4027009.423594921</v>
+        <v>4169504.991028169</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.032569977883177e-06</v>
+        <v>1.745610779811165e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.62222222222222</v>
       </c>
       <c r="AH23" t="n">
-        <v>3642677.296150093</v>
+        <v>3771573.286621291</v>
       </c>
     </row>
   </sheetData>
@@ -8325,28 +8325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11591.09193053959</v>
+        <v>11823.00430923923</v>
       </c>
       <c r="AB2" t="n">
-        <v>15859.44334225096</v>
+        <v>16176.75609003989</v>
       </c>
       <c r="AC2" t="n">
-        <v>14345.84032853446</v>
+        <v>14632.86919302564</v>
       </c>
       <c r="AD2" t="n">
-        <v>11591091.93053959</v>
+        <v>11823004.30923923</v>
       </c>
       <c r="AE2" t="n">
-        <v>15859443.34225097</v>
+        <v>16176756.09003989</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.79760054091092e-07</v>
+        <v>8.308441474245561e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.69583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>14345840.32853446</v>
+        <v>14632869.19302564</v>
       </c>
     </row>
     <row r="3">
@@ -8431,28 +8431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4998.772452376284</v>
+        <v>5139.955061335754</v>
       </c>
       <c r="AB3" t="n">
-        <v>6839.540999617976</v>
+        <v>7032.713273733454</v>
       </c>
       <c r="AC3" t="n">
-        <v>6186.784805970261</v>
+        <v>6361.520989363139</v>
       </c>
       <c r="AD3" t="n">
-        <v>4998772.452376285</v>
+        <v>5139955.061335755</v>
       </c>
       <c r="AE3" t="n">
-        <v>6839540.999617976</v>
+        <v>7032713.273733454</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.773652213347641e-07</v>
+        <v>1.34623409983765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.96527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>6186784.805970261</v>
+        <v>6361520.989363139</v>
       </c>
     </row>
     <row r="4">
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4003.520385618996</v>
+        <v>4124.607199745318</v>
       </c>
       <c r="AB4" t="n">
-        <v>5477.793214458221</v>
+        <v>5643.469535519087</v>
       </c>
       <c r="AC4" t="n">
-        <v>4955.000318201185</v>
+        <v>5104.864723708171</v>
       </c>
       <c r="AD4" t="n">
-        <v>4003520.385618996</v>
+        <v>4124607.199745318</v>
       </c>
       <c r="AE4" t="n">
-        <v>5477793.214458221</v>
+        <v>5643469.535519087</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.848169855728444e-07</v>
+        <v>1.532318098883351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.68888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>4955000.318201185</v>
+        <v>5104864.723708171</v>
       </c>
     </row>
     <row r="5">
@@ -8643,28 +8643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3590.785268078458</v>
+        <v>3701.696263014899</v>
       </c>
       <c r="AB5" t="n">
-        <v>4913.070818050936</v>
+        <v>5064.824134370747</v>
       </c>
       <c r="AC5" t="n">
-        <v>4444.174234714171</v>
+        <v>4581.44442751153</v>
       </c>
       <c r="AD5" t="n">
-        <v>3590785.268078458</v>
+        <v>3701696.263014899</v>
       </c>
       <c r="AE5" t="n">
-        <v>4913070.818050937</v>
+        <v>5064824.134370747</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.408065986800463e-07</v>
+        <v>1.629280407374861e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>4444174.234714171</v>
+        <v>4581444.42751153</v>
       </c>
     </row>
     <row r="6">
@@ -8749,28 +8749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3346.920208723257</v>
+        <v>3457.745862805127</v>
       </c>
       <c r="AB6" t="n">
-        <v>4579.403885274014</v>
+        <v>4731.040434471628</v>
       </c>
       <c r="AC6" t="n">
-        <v>4142.35200569701</v>
+        <v>4279.51657546243</v>
       </c>
       <c r="AD6" t="n">
-        <v>3346920.208723257</v>
+        <v>3457745.862805127</v>
       </c>
       <c r="AE6" t="n">
-        <v>4579403.885274014</v>
+        <v>4731040.434471628</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.758189712969489e-07</v>
+        <v>1.68991451942346e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.48055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>4142352.00569701</v>
+        <v>4279516.57546243</v>
       </c>
     </row>
     <row r="7">
@@ -8855,28 +8855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3180.206311099022</v>
+        <v>3291.117216526912</v>
       </c>
       <c r="AB7" t="n">
-        <v>4351.298575646442</v>
+        <v>4503.051769496705</v>
       </c>
       <c r="AC7" t="n">
-        <v>3936.016746672489</v>
+        <v>4073.286828688621</v>
       </c>
       <c r="AD7" t="n">
-        <v>3180206.311099022</v>
+        <v>3291117.216526912</v>
       </c>
       <c r="AE7" t="n">
-        <v>4351298.575646442</v>
+        <v>4503051.769496704</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.99210858174621e-07</v>
+        <v>1.730424378766274e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.97638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>3936016.746672489</v>
+        <v>4073286.828688621</v>
       </c>
     </row>
     <row r="8">
@@ -8961,28 +8961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3060.541696748291</v>
+        <v>3171.452602176182</v>
       </c>
       <c r="AB8" t="n">
-        <v>4187.568171061568</v>
+        <v>4339.32136491183</v>
       </c>
       <c r="AC8" t="n">
-        <v>3787.912542104135</v>
+        <v>3925.182624120268</v>
       </c>
       <c r="AD8" t="n">
-        <v>3060541.696748291</v>
+        <v>3171452.602176182</v>
       </c>
       <c r="AE8" t="n">
-        <v>4187568.171061568</v>
+        <v>4339321.36491183</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.01626429828544e-06</v>
+        <v>1.759957372996842e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.62638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>3787912.542104135</v>
+        <v>3925182.624120268</v>
       </c>
     </row>
     <row r="9">
@@ -9067,28 +9067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2961.451421207503</v>
+        <v>3062.271848300084</v>
       </c>
       <c r="AB9" t="n">
-        <v>4051.988484512226</v>
+        <v>4189.935440743629</v>
       </c>
       <c r="AC9" t="n">
-        <v>3665.272390551781</v>
+        <v>3790.053882890224</v>
       </c>
       <c r="AD9" t="n">
-        <v>2961451.421207503</v>
+        <v>3062271.848300084</v>
       </c>
       <c r="AE9" t="n">
-        <v>4051988.484512226</v>
+        <v>4189935.44074363</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.029092107218357e-06</v>
+        <v>1.782172457152579e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.36666666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>3665272.390551781</v>
+        <v>3790053.882890224</v>
       </c>
     </row>
     <row r="10">
@@ -9173,28 +9173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2875.183571708611</v>
+        <v>2976.003998801191</v>
       </c>
       <c r="AB10" t="n">
-        <v>3933.95300695892</v>
+        <v>4071.899963190324</v>
       </c>
       <c r="AC10" t="n">
-        <v>3558.502053312334</v>
+        <v>3683.283545650777</v>
       </c>
       <c r="AD10" t="n">
-        <v>2875183.571708611</v>
+        <v>2976003.998801191</v>
       </c>
       <c r="AE10" t="n">
-        <v>3933953.00695892</v>
+        <v>4071899.963190324</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.039656185163112e-06</v>
+        <v>1.800467232339656e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.16111111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>3558502.053312334</v>
+        <v>3683283.545650777</v>
       </c>
     </row>
     <row r="11">
@@ -9279,28 +9279,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2777.583907203663</v>
+        <v>2888.409471776982</v>
       </c>
       <c r="AB11" t="n">
-        <v>3800.412840189932</v>
+        <v>3952.049266917997</v>
       </c>
       <c r="AC11" t="n">
-        <v>3437.706772634983</v>
+        <v>3574.871231619176</v>
       </c>
       <c r="AD11" t="n">
-        <v>2777583.907203663</v>
+        <v>2888409.471776982</v>
       </c>
       <c r="AE11" t="n">
-        <v>3800412.840189932</v>
+        <v>3952049.266917997</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.048409278317337e-06</v>
+        <v>1.815625760351806e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.99305555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>3437706.772634983</v>
+        <v>3574871.231619176</v>
       </c>
     </row>
     <row r="12">
@@ -9385,28 +9385,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2718.614776051845</v>
+        <v>2829.440340625164</v>
       </c>
       <c r="AB12" t="n">
-        <v>3719.728673413551</v>
+        <v>3871.365100141615</v>
       </c>
       <c r="AC12" t="n">
-        <v>3364.722989494803</v>
+        <v>3501.887448478997</v>
       </c>
       <c r="AD12" t="n">
-        <v>2718614.776051845</v>
+        <v>2829440.340625164</v>
       </c>
       <c r="AE12" t="n">
-        <v>3719728.673413551</v>
+        <v>3871365.100141615</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.054294978886558e-06</v>
+        <v>1.825818563670321e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.88055555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>3364722.989494803</v>
+        <v>3501887.448478997</v>
       </c>
     </row>
     <row r="13">
@@ -9491,28 +9491,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2648.665185730872</v>
+        <v>2749.570864169473</v>
       </c>
       <c r="AB13" t="n">
-        <v>3624.02055797826</v>
+        <v>3762.084158862313</v>
       </c>
       <c r="AC13" t="n">
-        <v>3278.149122269476</v>
+        <v>3403.036126858631</v>
       </c>
       <c r="AD13" t="n">
-        <v>2648665.185730872</v>
+        <v>2749570.864169473</v>
       </c>
       <c r="AE13" t="n">
-        <v>3624020.557978259</v>
+        <v>3762084.158862313</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.059878848657357e-06</v>
+        <v>1.835488659126347e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.775</v>
       </c>
       <c r="AH13" t="n">
-        <v>3278149.122269476</v>
+        <v>3403036.126858631</v>
       </c>
     </row>
     <row r="14">
@@ -9597,28 +9597,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2610.824023892359</v>
+        <v>2711.729702330961</v>
       </c>
       <c r="AB14" t="n">
-        <v>3572.244610916568</v>
+        <v>3710.308211800621</v>
       </c>
       <c r="AC14" t="n">
-        <v>3231.314598927356</v>
+        <v>3356.201603516511</v>
       </c>
       <c r="AD14" t="n">
-        <v>2610824.023892359</v>
+        <v>2711729.702330961</v>
       </c>
       <c r="AE14" t="n">
-        <v>3572244.610916568</v>
+        <v>3710308.211800621</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.063349902839206e-06</v>
+        <v>1.841499799544958e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.71111111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>3231314.598927356</v>
+        <v>3356201.603516511</v>
       </c>
     </row>
     <row r="15">
@@ -9703,28 +9703,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2616.162148103915</v>
+        <v>2717.067826542516</v>
       </c>
       <c r="AB15" t="n">
-        <v>3579.548467964237</v>
+        <v>3717.612068848292</v>
       </c>
       <c r="AC15" t="n">
-        <v>3237.921386109424</v>
+        <v>3362.808390698579</v>
       </c>
       <c r="AD15" t="n">
-        <v>2616162.148103915</v>
+        <v>2717067.826542516</v>
       </c>
       <c r="AE15" t="n">
-        <v>3579548.467964237</v>
+        <v>3717612.068848291</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.063953564436049e-06</v>
+        <v>1.842545215269934e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.70138888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>3237921.386109423</v>
+        <v>3362808.390698579</v>
       </c>
     </row>
     <row r="16">
@@ -9809,28 +9809,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2629.103551018991</v>
+        <v>2730.009229457593</v>
       </c>
       <c r="AB16" t="n">
-        <v>3597.255466367048</v>
+        <v>3735.319067251102</v>
       </c>
       <c r="AC16" t="n">
-        <v>3253.938453436598</v>
+        <v>3378.825458025753</v>
       </c>
       <c r="AD16" t="n">
-        <v>2629103.551018992</v>
+        <v>2730009.229457594</v>
       </c>
       <c r="AE16" t="n">
-        <v>3597255.466367048</v>
+        <v>3735319.067251102</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.063802649036838e-06</v>
+        <v>1.84228386133869e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.70138888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>3253938.453436598</v>
+        <v>3378825.458025753</v>
       </c>
     </row>
     <row r="17">
@@ -9915,28 +9915,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2641.536937830662</v>
+        <v>2742.442616269263</v>
       </c>
       <c r="AB17" t="n">
-        <v>3614.26737472509</v>
+        <v>3752.330975609144</v>
       </c>
       <c r="AC17" t="n">
-        <v>3269.326769137311</v>
+        <v>3394.213773726467</v>
       </c>
       <c r="AD17" t="n">
-        <v>2641536.937830662</v>
+        <v>2742442.616269263</v>
       </c>
       <c r="AE17" t="n">
-        <v>3614267.37472509</v>
+        <v>3752330.975609144</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.063802649036838e-06</v>
+        <v>1.84228386133869e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.70277777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>3269326.769137311</v>
+        <v>3394213.773726467</v>
       </c>
     </row>
   </sheetData>
@@ -10212,28 +10212,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3713.941745057581</v>
+        <v>3850.501547539169</v>
       </c>
       <c r="AB2" t="n">
-        <v>5081.578943134085</v>
+        <v>5268.426089482695</v>
       </c>
       <c r="AC2" t="n">
-        <v>4596.600180842018</v>
+        <v>4765.614897784726</v>
       </c>
       <c r="AD2" t="n">
-        <v>3713941.745057581</v>
+        <v>3850501.547539169</v>
       </c>
       <c r="AE2" t="n">
-        <v>5081578.943134085</v>
+        <v>5268426.089482695</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.387984101797153e-07</v>
+        <v>1.587187092854663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.88333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4596600.180842018</v>
+        <v>4765614.897784726</v>
       </c>
     </row>
     <row r="3">
@@ -10318,28 +10318,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2434.891036886263</v>
+        <v>2535.074807280111</v>
       </c>
       <c r="AB3" t="n">
-        <v>3331.525336479212</v>
+        <v>3468.601190928101</v>
       </c>
       <c r="AC3" t="n">
-        <v>3013.569234190687</v>
+        <v>3137.562761478139</v>
       </c>
       <c r="AD3" t="n">
-        <v>2434891.036886263</v>
+        <v>2535074.807280111</v>
       </c>
       <c r="AE3" t="n">
-        <v>3331525.336479213</v>
+        <v>3468601.190928101</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.048624312425033e-06</v>
+        <v>1.984222852279861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.30555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>3013569.234190688</v>
+        <v>3137562.761478139</v>
       </c>
     </row>
     <row r="4">
@@ -10424,28 +10424,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2073.197058732299</v>
+        <v>2173.380739617596</v>
       </c>
       <c r="AB4" t="n">
-        <v>2836.639678756628</v>
+        <v>2973.715410735959</v>
       </c>
       <c r="AC4" t="n">
-        <v>2565.914769064888</v>
+        <v>2689.90818557111</v>
       </c>
       <c r="AD4" t="n">
-        <v>2073197.058732299</v>
+        <v>2173380.739617596</v>
       </c>
       <c r="AE4" t="n">
-        <v>2836639.678756628</v>
+        <v>2973715.410735959</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.121204540248252e-06</v>
+        <v>2.121560261840263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.85972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2565914.769064888</v>
+        <v>2689908.18557111</v>
       </c>
     </row>
     <row r="5">
@@ -10530,28 +10530,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1926.738418003169</v>
+        <v>2017.806822784302</v>
       </c>
       <c r="AB5" t="n">
-        <v>2636.248505211819</v>
+        <v>2760.852314287832</v>
       </c>
       <c r="AC5" t="n">
-        <v>2384.648647872417</v>
+        <v>2497.36044429276</v>
       </c>
       <c r="AD5" t="n">
-        <v>1926738.418003169</v>
+        <v>2017806.822784302</v>
       </c>
       <c r="AE5" t="n">
-        <v>2636248.505211818</v>
+        <v>2760852.314287832</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.148990474333708e-06</v>
+        <v>2.174137228377307e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2384648.647872417</v>
+        <v>2497360.44429276</v>
       </c>
     </row>
     <row r="6">
@@ -10636,28 +10636,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1931.402176437821</v>
+        <v>2022.470581218955</v>
       </c>
       <c r="AB6" t="n">
-        <v>2642.629665252612</v>
+        <v>2767.233474328625</v>
       </c>
       <c r="AC6" t="n">
-        <v>2390.420798954931</v>
+        <v>2503.132595375274</v>
       </c>
       <c r="AD6" t="n">
-        <v>1931402.176437821</v>
+        <v>2022470.581218954</v>
       </c>
       <c r="AE6" t="n">
-        <v>2642629.665252612</v>
+        <v>2767233.474328625</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.150337671137851e-06</v>
+        <v>2.176686414633649e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.33194444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>2390420.798954931</v>
+        <v>2503132.595375274</v>
       </c>
     </row>
     <row r="7">
@@ -10742,28 +10742,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1944.250686033694</v>
+        <v>2035.319090814827</v>
       </c>
       <c r="AB7" t="n">
-        <v>2660.209562917922</v>
+        <v>2784.813371993935</v>
       </c>
       <c r="AC7" t="n">
-        <v>2406.322895860606</v>
+        <v>2519.034692280949</v>
       </c>
       <c r="AD7" t="n">
-        <v>1944250.686033694</v>
+        <v>2035319.090814827</v>
       </c>
       <c r="AE7" t="n">
-        <v>2660209.562917922</v>
+        <v>2784813.371993935</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.151011269539922e-06</v>
+        <v>2.17796100776182e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.32083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2406322.895860606</v>
+        <v>2519034.692280949</v>
       </c>
     </row>
   </sheetData>
@@ -11039,28 +11039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5608.570935451844</v>
+        <v>5760.431776569384</v>
       </c>
       <c r="AB2" t="n">
-        <v>7673.894186572402</v>
+        <v>7881.676889016906</v>
       </c>
       <c r="AC2" t="n">
-        <v>6941.508495783778</v>
+        <v>7129.460708731824</v>
       </c>
       <c r="AD2" t="n">
-        <v>5608570.935451844</v>
+        <v>5760431.776569384</v>
       </c>
       <c r="AE2" t="n">
-        <v>7673894.186572402</v>
+        <v>7881676.889016906</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.949964183673421e-07</v>
+        <v>1.266132538570986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.19444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>6941508.495783778</v>
+        <v>7129460.708731824</v>
       </c>
     </row>
     <row r="3">
@@ -11145,28 +11145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3252.217111561372</v>
+        <v>3375.502629978871</v>
       </c>
       <c r="AB3" t="n">
-        <v>4449.826929731338</v>
+        <v>4618.511615003379</v>
       </c>
       <c r="AC3" t="n">
-        <v>4025.141692928932</v>
+        <v>4177.727348589046</v>
       </c>
       <c r="AD3" t="n">
-        <v>3252217.111561372</v>
+        <v>3375502.629978871</v>
       </c>
       <c r="AE3" t="n">
-        <v>4449826.929731338</v>
+        <v>4618511.615003379</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.406778133627516e-07</v>
+        <v>1.713710684449696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.7875</v>
       </c>
       <c r="AH3" t="n">
-        <v>4025141.692928932</v>
+        <v>4177727.348589045</v>
       </c>
     </row>
     <row r="4">
@@ -11251,28 +11251,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2744.842474575395</v>
+        <v>2858.631362213922</v>
       </c>
       <c r="AB4" t="n">
-        <v>3755.614567617869</v>
+        <v>3911.305543696338</v>
       </c>
       <c r="AC4" t="n">
-        <v>3397.18398432243</v>
+        <v>3538.01603215762</v>
       </c>
       <c r="AD4" t="n">
-        <v>2744842.474575395</v>
+        <v>2858631.362213922</v>
       </c>
       <c r="AE4" t="n">
-        <v>3755614.567617869</v>
+        <v>3911305.543696338</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.026384372141478e-06</v>
+        <v>1.869849421241482e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.79861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>3397183.98432243</v>
+        <v>3538016.03215762</v>
       </c>
     </row>
     <row r="5">
@@ -11357,28 +11357,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2494.256187713137</v>
+        <v>2598.633785427262</v>
       </c>
       <c r="AB5" t="n">
-        <v>3412.751354846161</v>
+        <v>3555.565388853255</v>
       </c>
       <c r="AC5" t="n">
-        <v>3087.043155366124</v>
+        <v>3216.227218408331</v>
       </c>
       <c r="AD5" t="n">
-        <v>2494256.187713137</v>
+        <v>2598633.785427262</v>
       </c>
       <c r="AE5" t="n">
-        <v>3412751.354846161</v>
+        <v>3555565.388853255</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.070043164301318e-06</v>
+        <v>1.949386258968125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.90972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>3087043.155366124</v>
+        <v>3216227.218408331</v>
       </c>
     </row>
     <row r="6">
@@ -11463,28 +11463,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2333.086463126201</v>
+        <v>2427.967519569906</v>
       </c>
       <c r="AB6" t="n">
-        <v>3192.231827359875</v>
+        <v>3322.052274642946</v>
       </c>
       <c r="AC6" t="n">
-        <v>2887.569702082037</v>
+        <v>3005.000268080549</v>
       </c>
       <c r="AD6" t="n">
-        <v>2333086.463126201</v>
+        <v>2427967.519569906</v>
       </c>
       <c r="AE6" t="n">
-        <v>3192231.827359875</v>
+        <v>3322052.274642946</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.096947290835242e-06</v>
+        <v>1.998399734615171e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.39722222222223</v>
       </c>
       <c r="AH6" t="n">
-        <v>2887569.702082037</v>
+        <v>3005000.268080549</v>
       </c>
     </row>
     <row r="7">
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2206.448643934765</v>
+        <v>2301.329700378469</v>
       </c>
       <c r="AB7" t="n">
-        <v>3018.96037627586</v>
+        <v>3148.780823558931</v>
       </c>
       <c r="AC7" t="n">
-        <v>2730.835035101478</v>
+        <v>2848.26560109999</v>
       </c>
       <c r="AD7" t="n">
-        <v>2206448.643934765</v>
+        <v>2301329.700378469</v>
       </c>
       <c r="AE7" t="n">
-        <v>3018960.37627586</v>
+        <v>3148780.823558931</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.11466857178573e-06</v>
+        <v>2.030684059891668e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.07361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2730835.035101478</v>
+        <v>2848265.60109999</v>
       </c>
     </row>
     <row r="8">
@@ -11675,28 +11675,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2165.174996715661</v>
+        <v>2269.467253575218</v>
       </c>
       <c r="AB8" t="n">
-        <v>2962.487951285705</v>
+        <v>3105.185218170774</v>
       </c>
       <c r="AC8" t="n">
-        <v>2679.752259092949</v>
+        <v>2808.830699103263</v>
       </c>
       <c r="AD8" t="n">
-        <v>2165174.996715661</v>
+        <v>2269467.253575218</v>
       </c>
       <c r="AE8" t="n">
-        <v>2962487.951285705</v>
+        <v>3105185.218170774</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.1191794433004e-06</v>
+        <v>2.038901888143867e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.99305555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>2679752.259092949</v>
+        <v>2808830.699103263</v>
       </c>
     </row>
     <row r="9">
@@ -11781,28 +11781,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2174.924113365174</v>
+        <v>2279.216370224731</v>
       </c>
       <c r="AB9" t="n">
-        <v>2975.827122786239</v>
+        <v>3118.52438967131</v>
       </c>
       <c r="AC9" t="n">
-        <v>2691.818358787118</v>
+        <v>2820.896798797432</v>
       </c>
       <c r="AD9" t="n">
-        <v>2174924.113365174</v>
+        <v>2279216.370224731</v>
       </c>
       <c r="AE9" t="n">
-        <v>2975827.122786239</v>
+        <v>3118524.38967131</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.119662750962686e-06</v>
+        <v>2.039782369742317e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.98333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2691818.358787118</v>
+        <v>2820896.798797432</v>
       </c>
     </row>
   </sheetData>
@@ -12078,28 +12078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2642.652536754811</v>
+        <v>2756.916394126094</v>
       </c>
       <c r="AB2" t="n">
-        <v>3615.793786389861</v>
+        <v>3772.134637010874</v>
       </c>
       <c r="AC2" t="n">
-        <v>3270.707502215128</v>
+        <v>3412.127401478627</v>
       </c>
       <c r="AD2" t="n">
-        <v>2642652.536754811</v>
+        <v>2756916.394126094</v>
       </c>
       <c r="AE2" t="n">
-        <v>3615793.786389861</v>
+        <v>3772134.637010874</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.633335280723805e-07</v>
+        <v>1.887823328508599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.21666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3270707.502215128</v>
+        <v>3412127.401478627</v>
       </c>
     </row>
     <row r="3">
@@ -12184,28 +12184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1840.277113579991</v>
+        <v>1936.935671017139</v>
       </c>
       <c r="AB3" t="n">
-        <v>2517.948334096483</v>
+        <v>2650.200836656585</v>
       </c>
       <c r="AC3" t="n">
-        <v>2277.638879052996</v>
+        <v>2397.269388386316</v>
       </c>
       <c r="AD3" t="n">
-        <v>1840277.113579991</v>
+        <v>1936935.671017139</v>
       </c>
       <c r="AE3" t="n">
-        <v>2517948.334096482</v>
+        <v>2650200.836656585</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.142253317327654e-06</v>
+        <v>2.238448467409162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.26527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2277638.879052996</v>
+        <v>2397269.388386316</v>
       </c>
     </row>
     <row r="4">
@@ -12290,28 +12290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1734.12339494658</v>
+        <v>1830.867203729749</v>
       </c>
       <c r="AB4" t="n">
-        <v>2372.704133090705</v>
+        <v>2505.073280303458</v>
       </c>
       <c r="AC4" t="n">
-        <v>2146.256580739694</v>
+        <v>2265.992602323726</v>
       </c>
       <c r="AD4" t="n">
-        <v>1734123.39494658</v>
+        <v>1830867.203729749</v>
       </c>
       <c r="AE4" t="n">
-        <v>2372704.133090706</v>
+        <v>2505073.280303458</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.167438507604056e-06</v>
+        <v>2.287803325670824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.80833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2146256.580739694</v>
+        <v>2265992.602323726</v>
       </c>
     </row>
     <row r="5">
@@ -12396,28 +12396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1750.802715514057</v>
+        <v>1847.546524297226</v>
       </c>
       <c r="AB5" t="n">
-        <v>2395.525515330819</v>
+        <v>2527.894662543571</v>
       </c>
       <c r="AC5" t="n">
-        <v>2166.899922288821</v>
+        <v>2286.635943872854</v>
       </c>
       <c r="AD5" t="n">
-        <v>1750802.715514057</v>
+        <v>1847546.524297226</v>
       </c>
       <c r="AE5" t="n">
-        <v>2395525.515330818</v>
+        <v>2527894.662543571</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.167263610449359e-06</v>
+        <v>2.287460583599563e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.80972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2166899.922288821</v>
+        <v>2286635.943872854</v>
       </c>
     </row>
   </sheetData>
@@ -12693,28 +12693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13109.19897244403</v>
+        <v>13353.15999514925</v>
       </c>
       <c r="AB2" t="n">
-        <v>17936.58437114063</v>
+        <v>18270.38260520666</v>
       </c>
       <c r="AC2" t="n">
-        <v>16224.74193291257</v>
+        <v>16526.68293200808</v>
       </c>
       <c r="AD2" t="n">
-        <v>13109198.97244403</v>
+        <v>13353159.99514925</v>
       </c>
       <c r="AE2" t="n">
-        <v>17936584.37114063</v>
+        <v>18270382.60520666</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.494270097084179e-07</v>
+        <v>7.732307242515637e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.22361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>16224741.93291257</v>
+        <v>16526682.93200808</v>
       </c>
     </row>
     <row r="3">
@@ -12799,28 +12799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5334.695486580121</v>
+        <v>5477.155377440347</v>
       </c>
       <c r="AB3" t="n">
-        <v>7299.165714894027</v>
+        <v>7494.085622455817</v>
       </c>
       <c r="AC3" t="n">
-        <v>6602.543583507688</v>
+        <v>6778.860608663581</v>
       </c>
       <c r="AD3" t="n">
-        <v>5334695.48658012</v>
+        <v>5477155.377440347</v>
       </c>
       <c r="AE3" t="n">
-        <v>7299165.714894027</v>
+        <v>7494085.622455818</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.53631514782269e-07</v>
+        <v>1.29660885840387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>6602543.583507688</v>
+        <v>6778860.608663581</v>
       </c>
     </row>
     <row r="4">
@@ -12905,28 +12905,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4226.462329354881</v>
+        <v>4348.485555889053</v>
       </c>
       <c r="AB4" t="n">
-        <v>5782.832217382079</v>
+        <v>5949.789779210966</v>
       </c>
       <c r="AC4" t="n">
-        <v>5230.926826810907</v>
+        <v>5381.950193265247</v>
       </c>
       <c r="AD4" t="n">
-        <v>4226462.329354881</v>
+        <v>4348485.555889053</v>
       </c>
       <c r="AE4" t="n">
-        <v>5782832.217382079</v>
+        <v>5949789.779210966</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.647543993790592e-07</v>
+        <v>1.487793693052427e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.02222222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>5230926.826810908</v>
+        <v>5381950.193265247</v>
       </c>
     </row>
     <row r="5">
@@ -13011,28 +13011,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3769.394291002347</v>
+        <v>3891.417428027968</v>
       </c>
       <c r="AB5" t="n">
-        <v>5157.451562889388</v>
+        <v>5324.409002248725</v>
       </c>
       <c r="AC5" t="n">
-        <v>4665.231624255761</v>
+        <v>4816.254879928874</v>
       </c>
       <c r="AD5" t="n">
-        <v>3769394.291002347</v>
+        <v>3891417.428027968</v>
       </c>
       <c r="AE5" t="n">
-        <v>5157451.562889388</v>
+        <v>5324409.002248725</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.223348981270595e-07</v>
+        <v>1.586859859054707e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.52083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>4665231.624255761</v>
+        <v>4816254.879928874</v>
       </c>
     </row>
     <row r="6">
@@ -13117,28 +13117,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3509.974779193492</v>
+        <v>3621.907550583669</v>
       </c>
       <c r="AB6" t="n">
-        <v>4802.502342051364</v>
+        <v>4955.653697992771</v>
       </c>
       <c r="AC6" t="n">
-        <v>4344.158258880171</v>
+        <v>4482.693064359803</v>
       </c>
       <c r="AD6" t="n">
-        <v>3509974.779193493</v>
+        <v>3621907.550583669</v>
       </c>
       <c r="AE6" t="n">
-        <v>4802502.342051364</v>
+        <v>4955653.697992772</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.583787947459376e-07</v>
+        <v>1.648872705824965e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.675</v>
       </c>
       <c r="AH6" t="n">
-        <v>4344158.258880171</v>
+        <v>4482693.064359803</v>
       </c>
     </row>
     <row r="7">
@@ -13223,28 +13223,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3338.073526831865</v>
+        <v>3449.835706021449</v>
       </c>
       <c r="AB7" t="n">
-        <v>4567.299464822151</v>
+        <v>4720.217408988712</v>
       </c>
       <c r="AC7" t="n">
-        <v>4131.402814144411</v>
+        <v>4269.726484341392</v>
       </c>
       <c r="AD7" t="n">
-        <v>3338073.526831865</v>
+        <v>3449835.70602145</v>
       </c>
       <c r="AE7" t="n">
-        <v>4567299.464822151</v>
+        <v>4720217.408988712</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.832057110892311e-07</v>
+        <v>1.691586948828546e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.12638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>4131402.814144412</v>
+        <v>4269726.484341392</v>
       </c>
     </row>
     <row r="8">
@@ -13329,28 +13329,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3205.408048147009</v>
+        <v>3317.255478682615</v>
       </c>
       <c r="AB8" t="n">
-        <v>4385.78070409767</v>
+        <v>4538.815292916881</v>
       </c>
       <c r="AC8" t="n">
-        <v>3967.207949180302</v>
+        <v>4105.637131627995</v>
       </c>
       <c r="AD8" t="n">
-        <v>3205408.048147009</v>
+        <v>3317255.478682615</v>
       </c>
       <c r="AE8" t="n">
-        <v>4385780.704097671</v>
+        <v>4538815.292916881</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.000554640582135e-06</v>
+        <v>1.721435455987674e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.7625</v>
       </c>
       <c r="AH8" t="n">
-        <v>3967207.949180302</v>
+        <v>4105637.131627995</v>
       </c>
     </row>
     <row r="9">
@@ -13435,28 +13435,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3105.649291513826</v>
+        <v>3217.326129848839</v>
       </c>
       <c r="AB9" t="n">
-        <v>4249.286372226409</v>
+        <v>4402.087549270773</v>
       </c>
       <c r="AC9" t="n">
-        <v>3843.740444771841</v>
+        <v>3981.958491936883</v>
       </c>
       <c r="AD9" t="n">
-        <v>3105649.291513826</v>
+        <v>3217326.129848839</v>
       </c>
       <c r="AE9" t="n">
-        <v>4249286.37222641</v>
+        <v>4402087.549270772</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.014015016912837e-06</v>
+        <v>1.744593780507688e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.48472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>3843740.444771841</v>
+        <v>3981958.491936883</v>
       </c>
     </row>
     <row r="10">
@@ -13541,28 +13541,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3017.399507133563</v>
+        <v>3119.071320687704</v>
       </c>
       <c r="AB10" t="n">
-        <v>4128.539123931616</v>
+        <v>4267.650984680246</v>
       </c>
       <c r="AC10" t="n">
-        <v>3734.51714438448</v>
+        <v>3860.352364387978</v>
       </c>
       <c r="AD10" t="n">
-        <v>3017399.507133564</v>
+        <v>3119071.320687703</v>
       </c>
       <c r="AE10" t="n">
-        <v>4128539.123931616</v>
+        <v>4267650.984680247</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.025082437451413e-06</v>
+        <v>1.763635069557477e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.26388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>3734517.14438448</v>
+        <v>3860352.364387978</v>
       </c>
     </row>
     <row r="11">
@@ -13647,28 +13647,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2942.955815013022</v>
+        <v>3044.627628567162</v>
       </c>
       <c r="AB11" t="n">
-        <v>4026.681980148378</v>
+        <v>4165.793840897009</v>
       </c>
       <c r="AC11" t="n">
-        <v>3642.381103446519</v>
+        <v>3768.216323450017</v>
       </c>
       <c r="AD11" t="n">
-        <v>2942955.815013022</v>
+        <v>3044627.628567162</v>
       </c>
       <c r="AE11" t="n">
-        <v>4026681.980148378</v>
+        <v>4165793.840897008</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.033308222986842e-06</v>
+        <v>1.777787378986374e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3642381.103446519</v>
+        <v>3768216.323450017</v>
       </c>
     </row>
     <row r="12">
@@ -13753,28 +13753,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2868.743396476874</v>
+        <v>2980.505486157909</v>
       </c>
       <c r="AB12" t="n">
-        <v>3925.141275086379</v>
+        <v>4078.059096783391</v>
       </c>
       <c r="AC12" t="n">
-        <v>3550.531300762365</v>
+        <v>3688.85486017812</v>
       </c>
       <c r="AD12" t="n">
-        <v>2868743.396476874</v>
+        <v>2980505.486157909</v>
       </c>
       <c r="AE12" t="n">
-        <v>3925141.275086379</v>
+        <v>4078059.096783391</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.039888851415185e-06</v>
+        <v>1.789109226529492e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.975</v>
       </c>
       <c r="AH12" t="n">
-        <v>3550531.300762365</v>
+        <v>3688854.86017812</v>
       </c>
     </row>
     <row r="13">
@@ -13859,28 +13859,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2793.367616664264</v>
+        <v>2905.129706345298</v>
       </c>
       <c r="AB13" t="n">
-        <v>3822.008807802044</v>
+        <v>3974.926629499056</v>
       </c>
       <c r="AC13" t="n">
-        <v>3457.241651408325</v>
+        <v>3595.565210824079</v>
       </c>
       <c r="AD13" t="n">
-        <v>2793367.616664263</v>
+        <v>2905129.706345298</v>
       </c>
       <c r="AE13" t="n">
-        <v>3822008.807802044</v>
+        <v>3974926.629499056</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.046469479843528e-06</v>
+        <v>1.800431074072609e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.85</v>
       </c>
       <c r="AH13" t="n">
-        <v>3457241.651408325</v>
+        <v>3595565.210824079</v>
       </c>
     </row>
     <row r="14">
@@ -13965,28 +13965,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2734.827967313893</v>
+        <v>2836.585032214054</v>
       </c>
       <c r="AB14" t="n">
-        <v>3741.912276973803</v>
+        <v>3881.140782375082</v>
       </c>
       <c r="AC14" t="n">
-        <v>3384.789421066146</v>
+        <v>3510.730153320357</v>
       </c>
       <c r="AD14" t="n">
-        <v>2734827.967313893</v>
+        <v>2836585.032214054</v>
       </c>
       <c r="AE14" t="n">
-        <v>3741912.276973803</v>
+        <v>3881140.782375082</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.051255391427777e-06</v>
+        <v>1.808665145013059e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.76111111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>3384789.421066146</v>
+        <v>3510730.153320357</v>
       </c>
     </row>
     <row r="15">
@@ -14071,28 +14071,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2694.764383124989</v>
+        <v>2796.521448025151</v>
       </c>
       <c r="AB15" t="n">
-        <v>3687.09551360595</v>
+        <v>3826.32401900723</v>
       </c>
       <c r="AC15" t="n">
-        <v>3335.204292658314</v>
+        <v>3461.145024912524</v>
       </c>
       <c r="AD15" t="n">
-        <v>2694764.383124989</v>
+        <v>2796521.448025151</v>
       </c>
       <c r="AE15" t="n">
-        <v>3687095.513605949</v>
+        <v>3826324.01900723</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.054695265378956e-06</v>
+        <v>1.814583383501507e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.69444444444444</v>
       </c>
       <c r="AH15" t="n">
-        <v>3335204.292658314</v>
+        <v>3461145.024912524</v>
       </c>
     </row>
     <row r="16">
@@ -14177,28 +14177,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2684.238588921101</v>
+        <v>2785.995653821263</v>
       </c>
       <c r="AB16" t="n">
-        <v>3672.693657610922</v>
+        <v>3811.922163012202</v>
       </c>
       <c r="AC16" t="n">
-        <v>3322.17692958632</v>
+        <v>3448.117661840531</v>
       </c>
       <c r="AD16" t="n">
-        <v>2684238.588921101</v>
+        <v>2785995.653821263</v>
       </c>
       <c r="AE16" t="n">
-        <v>3672693.657610922</v>
+        <v>3811922.163012202</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.055293504326987e-06</v>
+        <v>1.815612642369063e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.68333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>3322176.92958632</v>
+        <v>3448117.661840531</v>
       </c>
     </row>
     <row r="17">
@@ -14283,28 +14283,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2695.661492087786</v>
+        <v>2797.418556987947</v>
       </c>
       <c r="AB17" t="n">
-        <v>3688.322977666502</v>
+        <v>3827.551483067782</v>
       </c>
       <c r="AC17" t="n">
-        <v>3336.314609271682</v>
+        <v>3462.255341525893</v>
       </c>
       <c r="AD17" t="n">
-        <v>2695661.492087786</v>
+        <v>2797418.556987947</v>
       </c>
       <c r="AE17" t="n">
-        <v>3688322.977666501</v>
+        <v>3827551.483067782</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.055293504326987e-06</v>
+        <v>1.815612642369063e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.68472222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>3336314.609271682</v>
+        <v>3462255.341525893</v>
       </c>
     </row>
   </sheetData>
@@ -14580,28 +14580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2114.772400142188</v>
+        <v>2226.628899711024</v>
       </c>
       <c r="AB2" t="n">
-        <v>2893.524895048251</v>
+        <v>3046.57189251899</v>
       </c>
       <c r="AC2" t="n">
-        <v>2617.370940152542</v>
+        <v>2755.811346987369</v>
       </c>
       <c r="AD2" t="n">
-        <v>2114772.400142188</v>
+        <v>2226628.899711024</v>
       </c>
       <c r="AE2" t="n">
-        <v>2893524.895048251</v>
+        <v>3046571.89251899</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042059788861916e-06</v>
+        <v>2.088975968786034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.85694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>2617370.940152542</v>
+        <v>2755811.346987369</v>
       </c>
     </row>
     <row r="3">
@@ -14686,28 +14686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1628.143867290135</v>
+        <v>1722.765505401678</v>
       </c>
       <c r="AB3" t="n">
-        <v>2227.698267864377</v>
+        <v>2357.163767540647</v>
       </c>
       <c r="AC3" t="n">
-        <v>2015.089871773557</v>
+        <v>2132.199365866693</v>
       </c>
       <c r="AD3" t="n">
-        <v>1628143.867290135</v>
+        <v>1722765.505401677</v>
       </c>
       <c r="AE3" t="n">
-        <v>2227698.267864377</v>
+        <v>2357163.767540647</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.170751130014736e-06</v>
+        <v>2.346958401207394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.23194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2015089.871773557</v>
+        <v>2132199.365866693</v>
       </c>
     </row>
     <row r="4">
@@ -14792,28 +14792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1645.018136575996</v>
+        <v>1739.639774687538</v>
       </c>
       <c r="AB4" t="n">
-        <v>2250.786387541512</v>
+        <v>2380.251887217782</v>
       </c>
       <c r="AC4" t="n">
-        <v>2035.974493713086</v>
+        <v>2153.083987806222</v>
       </c>
       <c r="AD4" t="n">
-        <v>1645018.136575996</v>
+        <v>1739639.774687538</v>
       </c>
       <c r="AE4" t="n">
-        <v>2250786.387541512</v>
+        <v>2380251.887217782</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.171467076279842e-06</v>
+        <v>2.348393630316831e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2035974.493713086</v>
+        <v>2153083.987806222</v>
       </c>
     </row>
   </sheetData>
@@ -15089,28 +15089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8096.41298111091</v>
+        <v>8282.713172052303</v>
       </c>
       <c r="AB2" t="n">
-        <v>11077.8694292882</v>
+        <v>11332.77356951859</v>
       </c>
       <c r="AC2" t="n">
-        <v>10020.61311884392</v>
+        <v>10251.18956569091</v>
       </c>
       <c r="AD2" t="n">
-        <v>8096412.98111091</v>
+        <v>8282713.172052303</v>
       </c>
       <c r="AE2" t="n">
-        <v>11077869.4292882</v>
+        <v>11332773.56951859</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.787323867900846e-07</v>
+        <v>1.024978060814758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.31666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10020613.11884392</v>
+        <v>10251189.56569091</v>
       </c>
     </row>
     <row r="3">
@@ -15195,28 +15195,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4099.923060626651</v>
+        <v>4227.337741102154</v>
       </c>
       <c r="AB3" t="n">
-        <v>5609.695607389563</v>
+        <v>5784.029994355138</v>
       </c>
       <c r="AC3" t="n">
-        <v>5074.314131877325</v>
+        <v>5232.010289630748</v>
       </c>
       <c r="AD3" t="n">
-        <v>4099923.060626651</v>
+        <v>4227337.741102153</v>
       </c>
       <c r="AE3" t="n">
-        <v>5609695.607389563</v>
+        <v>5784029.994355138</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.527051072425643e-07</v>
+        <v>1.510204106799605e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.32777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>5074314.131877325</v>
+        <v>5232010.289630748</v>
       </c>
     </row>
     <row r="4">
@@ -15301,28 +15301,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3369.927136279857</v>
+        <v>3487.612816357065</v>
       </c>
       <c r="AB4" t="n">
-        <v>4610.882978550965</v>
+        <v>4771.905717958387</v>
       </c>
       <c r="AC4" t="n">
-        <v>4170.826778492791</v>
+        <v>4316.481733647998</v>
       </c>
       <c r="AD4" t="n">
-        <v>3369927.136279857</v>
+        <v>3487612.816357065</v>
       </c>
       <c r="AE4" t="n">
-        <v>4610882.978550965</v>
+        <v>4771905.717958387</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.505080817968263e-07</v>
+        <v>1.683420442171041e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.72083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4170826.778492792</v>
+        <v>4316481.733647998</v>
       </c>
     </row>
     <row r="5">
@@ -15407,28 +15407,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3051.209808218809</v>
+        <v>3159.166577406273</v>
       </c>
       <c r="AB5" t="n">
-        <v>4174.799869481662</v>
+        <v>4322.511083800482</v>
       </c>
       <c r="AC5" t="n">
-        <v>3776.362829306592</v>
+        <v>3909.976692644808</v>
       </c>
       <c r="AD5" t="n">
-        <v>3051209.808218809</v>
+        <v>3159166.577406273</v>
       </c>
       <c r="AE5" t="n">
-        <v>4174799.869481662</v>
+        <v>4322511.083800482</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.000575741266576e-06</v>
+        <v>1.772093987464526e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.58472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>3776362.829306592</v>
+        <v>3909976.692644808</v>
       </c>
     </row>
     <row r="6">
@@ -15513,28 +15513,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2852.999218785152</v>
+        <v>2960.870647118045</v>
       </c>
       <c r="AB6" t="n">
-        <v>3903.599396584464</v>
+        <v>4051.193843781084</v>
       </c>
       <c r="AC6" t="n">
-        <v>3531.045348910458</v>
+        <v>3664.553589216736</v>
       </c>
       <c r="AD6" t="n">
-        <v>2852999.218785152</v>
+        <v>2960870.647118045</v>
       </c>
       <c r="AE6" t="n">
-        <v>3903599.396584464</v>
+        <v>4051193.843781084</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.031207197526019e-06</v>
+        <v>1.826344572628553e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.94166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3531045.348910458</v>
+        <v>3664553.589216736</v>
       </c>
     </row>
     <row r="7">
@@ -15619,28 +15619,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2713.358892681389</v>
+        <v>2821.230321014281</v>
       </c>
       <c r="AB7" t="n">
-        <v>3712.537341912882</v>
+        <v>3860.131789109503</v>
       </c>
       <c r="AC7" t="n">
-        <v>3358.217988579461</v>
+        <v>3491.726228885739</v>
       </c>
       <c r="AD7" t="n">
-        <v>2713358.892681389</v>
+        <v>2821230.321014281</v>
       </c>
       <c r="AE7" t="n">
-        <v>3712537.341912882</v>
+        <v>3860131.789109503</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.052664765870197e-06</v>
+        <v>1.864347520611475e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.51666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3358217.988579461</v>
+        <v>3491726.228885739</v>
       </c>
     </row>
     <row r="8">
@@ -15725,28 +15725,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2599.871544563161</v>
+        <v>2697.92881066029</v>
       </c>
       <c r="AB8" t="n">
-        <v>3557.258945509071</v>
+        <v>3691.425222964438</v>
       </c>
       <c r="AC8" t="n">
-        <v>3217.759144393839</v>
+        <v>3339.120780632413</v>
       </c>
       <c r="AD8" t="n">
-        <v>2599871.544563161</v>
+        <v>2697928.81066029</v>
       </c>
       <c r="AE8" t="n">
-        <v>3557258.945509071</v>
+        <v>3691425.222964439</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.067902749187077e-06</v>
+        <v>1.891335121352971e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>3217759.144393838</v>
+        <v>3339120.780632413</v>
       </c>
     </row>
     <row r="9">
@@ -15831,28 +15831,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2499.023719594265</v>
+        <v>2597.080985691394</v>
       </c>
       <c r="AB9" t="n">
-        <v>3419.274502294583</v>
+        <v>3553.440779749951</v>
       </c>
       <c r="AC9" t="n">
-        <v>3092.943742777364</v>
+        <v>3214.305379015939</v>
       </c>
       <c r="AD9" t="n">
-        <v>2499023.719594265</v>
+        <v>2597080.985691394</v>
       </c>
       <c r="AE9" t="n">
-        <v>3419274.502294583</v>
+        <v>3553440.779749951</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.079253491861896e-06</v>
+        <v>1.911438130068574e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.00972222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>3092943.742777364</v>
+        <v>3214305.379015939</v>
       </c>
     </row>
     <row r="10">
@@ -15937,28 +15937,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2415.699619036597</v>
+        <v>2523.485706514918</v>
       </c>
       <c r="AB10" t="n">
-        <v>3305.266791911698</v>
+        <v>3452.74447198612</v>
       </c>
       <c r="AC10" t="n">
-        <v>2989.816768262598</v>
+        <v>3123.219385536937</v>
       </c>
       <c r="AD10" t="n">
-        <v>2415699.619036597</v>
+        <v>2523485.706514918</v>
       </c>
       <c r="AE10" t="n">
-        <v>3305266.791911697</v>
+        <v>3452744.47198612</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.087027973146019e-06</v>
+        <v>1.925207314120358e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.86527777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>2989816.768262598</v>
+        <v>3123219.385536937</v>
       </c>
     </row>
     <row r="11">
@@ -16043,28 +16043,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2388.986672253834</v>
+        <v>2496.772759732155</v>
       </c>
       <c r="AB11" t="n">
-        <v>3268.716959631482</v>
+        <v>3416.194639705904</v>
       </c>
       <c r="AC11" t="n">
-        <v>2956.755200677195</v>
+        <v>3090.157817951534</v>
       </c>
       <c r="AD11" t="n">
-        <v>2388986.672253834</v>
+        <v>2496772.759732156</v>
       </c>
       <c r="AE11" t="n">
-        <v>3268716.959631482</v>
+        <v>3416194.639705904</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.089826786408303e-06</v>
+        <v>1.930164220379e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.81666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2956755.200677195</v>
+        <v>3090157.817951534</v>
       </c>
     </row>
     <row r="12">
@@ -16149,28 +16149,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2400.349845750019</v>
+        <v>2508.13593322834</v>
       </c>
       <c r="AB12" t="n">
-        <v>3284.264554916796</v>
+        <v>3431.742234991218</v>
       </c>
       <c r="AC12" t="n">
-        <v>2970.818955289666</v>
+        <v>3104.221572564004</v>
       </c>
       <c r="AD12" t="n">
-        <v>2400349.845750018</v>
+        <v>2508135.93322834</v>
       </c>
       <c r="AE12" t="n">
-        <v>3284264.554916796</v>
+        <v>3431742.234991218</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.090448744911033e-06</v>
+        <v>1.931265755103143e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.80416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2970818.955289666</v>
+        <v>3104221.572564004</v>
       </c>
     </row>
     <row r="13">
@@ -16255,28 +16255,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2413.175268706626</v>
+        <v>2520.961356184947</v>
       </c>
       <c r="AB13" t="n">
-        <v>3301.812864423755</v>
+        <v>3449.290544498177</v>
       </c>
       <c r="AC13" t="n">
-        <v>2986.692478766487</v>
+        <v>3120.095096040826</v>
       </c>
       <c r="AD13" t="n">
-        <v>2413175.268706626</v>
+        <v>2520961.356184947</v>
       </c>
       <c r="AE13" t="n">
-        <v>3301812.864423755</v>
+        <v>3449290.544498178</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.090448744911033e-06</v>
+        <v>1.931265755103143e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.80416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2986692.478766487</v>
+        <v>3120095.096040826</v>
       </c>
     </row>
   </sheetData>
@@ -16552,28 +16552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10281.98041605504</v>
+        <v>10491.85584942479</v>
       </c>
       <c r="AB2" t="n">
-        <v>14068.25921420916</v>
+        <v>14355.42004119631</v>
       </c>
       <c r="AC2" t="n">
-        <v>12725.60429973032</v>
+        <v>12985.35890042256</v>
       </c>
       <c r="AD2" t="n">
-        <v>10281980.41605504</v>
+        <v>10491855.84942479</v>
       </c>
       <c r="AE2" t="n">
-        <v>14068259.21420916</v>
+        <v>14355420.04119631</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.111304088038817e-07</v>
+        <v>8.913668014533497e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.39444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>12725604.29973032</v>
+        <v>12985358.90042256</v>
       </c>
     </row>
     <row r="3">
@@ -16658,28 +16658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4688.336855320083</v>
+        <v>4818.280095993797</v>
       </c>
       <c r="AB3" t="n">
-        <v>6414.789320273694</v>
+        <v>6592.583394854662</v>
       </c>
       <c r="AC3" t="n">
-        <v>5802.570830759887</v>
+        <v>5963.396488398393</v>
       </c>
       <c r="AD3" t="n">
-        <v>4688336.855320084</v>
+        <v>4818280.095993796</v>
       </c>
       <c r="AE3" t="n">
-        <v>6414789.320273694</v>
+        <v>6592583.394854662</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.018120243024828e-07</v>
+        <v>1.398290156795523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>5802570.830759887</v>
+        <v>5963396.488398393</v>
       </c>
     </row>
     <row r="4">
@@ -16764,28 +16764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3796.475265257589</v>
+        <v>3916.330973382906</v>
       </c>
       <c r="AB4" t="n">
-        <v>5194.504946593677</v>
+        <v>5358.496814111402</v>
       </c>
       <c r="AC4" t="n">
-        <v>4698.748685024063</v>
+        <v>4847.089398869922</v>
       </c>
       <c r="AD4" t="n">
-        <v>3796475.26525759</v>
+        <v>3916330.973382906</v>
       </c>
       <c r="AE4" t="n">
-        <v>5194504.946593678</v>
+        <v>5358496.814111402</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.054092457590073e-07</v>
+        <v>1.578954664988751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.36805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>4698748.685024063</v>
+        <v>4847089.398869921</v>
       </c>
     </row>
     <row r="5">
@@ -16870,28 +16870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3414.559084452979</v>
+        <v>3524.497941739041</v>
       </c>
       <c r="AB5" t="n">
-        <v>4671.950379064022</v>
+        <v>4822.373573762897</v>
       </c>
       <c r="AC5" t="n">
-        <v>4226.065992009515</v>
+        <v>4362.133008126603</v>
       </c>
       <c r="AD5" t="n">
-        <v>3414559.084452979</v>
+        <v>3524497.941739041</v>
       </c>
       <c r="AE5" t="n">
-        <v>4671950.379064022</v>
+        <v>4822373.573762896</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.597977870236826e-07</v>
+        <v>1.673803531790195e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.04444444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>4226065.992009515</v>
+        <v>4362133.008126603</v>
       </c>
     </row>
     <row r="6">
@@ -16976,28 +16976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3187.487539239238</v>
+        <v>3297.341055670729</v>
       </c>
       <c r="AB6" t="n">
-        <v>4361.261073213002</v>
+        <v>4511.567500789679</v>
       </c>
       <c r="AC6" t="n">
-        <v>3945.028437453749</v>
+        <v>4080.989830538898</v>
       </c>
       <c r="AD6" t="n">
-        <v>3187487.539239238</v>
+        <v>3297341.055670728</v>
       </c>
       <c r="AE6" t="n">
-        <v>4361261.073213002</v>
+        <v>4511567.500789679</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.93466883997053e-07</v>
+        <v>1.732519496952994e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.3</v>
       </c>
       <c r="AH6" t="n">
-        <v>3945028.437453749</v>
+        <v>4080989.830538898</v>
       </c>
     </row>
     <row r="7">
@@ -17082,28 +17082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3029.518002276222</v>
+        <v>3139.456770053733</v>
       </c>
       <c r="AB7" t="n">
-        <v>4145.120183616076</v>
+        <v>4295.543255845402</v>
       </c>
       <c r="AC7" t="n">
-        <v>3749.515731004318</v>
+        <v>3885.582636340179</v>
       </c>
       <c r="AD7" t="n">
-        <v>3029518.002276222</v>
+        <v>3139456.770053733</v>
       </c>
       <c r="AE7" t="n">
-        <v>4145120.183616076</v>
+        <v>4295543.255845402</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.015862165694272e-06</v>
+        <v>1.771574912694765e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.82916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3749515.731004318</v>
+        <v>3885582.636340179</v>
       </c>
     </row>
     <row r="8">
@@ -17188,28 +17188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2908.558368120611</v>
+        <v>3018.326543697529</v>
       </c>
       <c r="AB8" t="n">
-        <v>3979.617875801922</v>
+        <v>4129.8075362564</v>
       </c>
       <c r="AC8" t="n">
-        <v>3599.808731164005</v>
+        <v>3735.664501217215</v>
       </c>
       <c r="AD8" t="n">
-        <v>2908558.368120611</v>
+        <v>3018326.543697529</v>
       </c>
       <c r="AE8" t="n">
-        <v>3979617.875801922</v>
+        <v>4129807.536256401</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.032772888608499e-06</v>
+        <v>1.801065736826306e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.4875</v>
       </c>
       <c r="AH8" t="n">
-        <v>3599808.731164005</v>
+        <v>3735664.501217215</v>
       </c>
     </row>
     <row r="9">
@@ -17294,28 +17294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2813.263913177299</v>
+        <v>2913.200578769535</v>
       </c>
       <c r="AB9" t="n">
-        <v>3849.231798453834</v>
+        <v>3985.96955321166</v>
       </c>
       <c r="AC9" t="n">
-        <v>3481.866518040014</v>
+        <v>3605.554213396393</v>
       </c>
       <c r="AD9" t="n">
-        <v>2813263.913177299</v>
+        <v>2913200.578769535</v>
       </c>
       <c r="AE9" t="n">
-        <v>3849231.798453833</v>
+        <v>3985969.55321166</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.045113145870232e-06</v>
+        <v>1.822586067949323e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.24583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3481866.518040014</v>
+        <v>3605554.213396393</v>
       </c>
     </row>
     <row r="10">
@@ -17400,28 +17400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2724.054209438794</v>
+        <v>2823.99087503103</v>
       </c>
       <c r="AB10" t="n">
-        <v>3727.171146144439</v>
+        <v>3863.908900902265</v>
       </c>
       <c r="AC10" t="n">
-        <v>3371.455163073831</v>
+        <v>3495.142858430209</v>
       </c>
       <c r="AD10" t="n">
-        <v>2724054.209438794</v>
+        <v>2823990.87503103</v>
       </c>
       <c r="AE10" t="n">
-        <v>3727171.146144439</v>
+        <v>3863908.900902266</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.055320519160801e-06</v>
+        <v>1.840386835668362e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.04861111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>3371455.163073832</v>
+        <v>3495142.85843021</v>
       </c>
     </row>
     <row r="11">
@@ -17506,28 +17506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2632.925934657364</v>
+        <v>2742.779361580303</v>
       </c>
       <c r="AB11" t="n">
-        <v>3602.485420292734</v>
+        <v>3752.791725399863</v>
       </c>
       <c r="AC11" t="n">
-        <v>3258.669267899903</v>
+        <v>3394.630550203825</v>
       </c>
       <c r="AD11" t="n">
-        <v>2632925.934657364</v>
+        <v>2742779.361580303</v>
       </c>
       <c r="AE11" t="n">
-        <v>3602485.420292735</v>
+        <v>3752791.725399863</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.063242659625124e-06</v>
+        <v>1.854202356883138e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.90277777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>3258669.267899903</v>
+        <v>3394630.550203825</v>
       </c>
     </row>
     <row r="12">
@@ -17612,28 +17612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2567.438515563065</v>
+        <v>2667.460432501322</v>
       </c>
       <c r="AB12" t="n">
-        <v>3512.882644386882</v>
+        <v>3649.737043797358</v>
       </c>
       <c r="AC12" t="n">
-        <v>3177.618055168222</v>
+        <v>3301.411262775313</v>
       </c>
       <c r="AD12" t="n">
-        <v>2567438.515563065</v>
+        <v>2667460.432501322</v>
       </c>
       <c r="AE12" t="n">
-        <v>3512882.644386881</v>
+        <v>3649737.043797358</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.069184264973366e-06</v>
+        <v>1.86456399779422e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.79027777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>3177618.055168222</v>
+        <v>3301411.262775314</v>
       </c>
     </row>
     <row r="13">
@@ -17718,28 +17718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2542.944494638937</v>
+        <v>2642.966411577193</v>
       </c>
       <c r="AB13" t="n">
-        <v>3479.368844358549</v>
+        <v>3616.223243769025</v>
       </c>
       <c r="AC13" t="n">
-        <v>3147.302765177682</v>
+        <v>3271.095972784772</v>
       </c>
       <c r="AD13" t="n">
-        <v>2542944.494638937</v>
+        <v>2642966.411577194</v>
       </c>
       <c r="AE13" t="n">
-        <v>3479368.844358549</v>
+        <v>3616223.243769025</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.071469497799613e-06</v>
+        <v>1.868549244298483e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.74722222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>3147302.765177682</v>
+        <v>3271095.972784772</v>
       </c>
     </row>
     <row r="14">
@@ -17824,28 +17824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2542.480684303803</v>
+        <v>2642.50260124206</v>
       </c>
       <c r="AB14" t="n">
-        <v>3478.734238596151</v>
+        <v>3615.588638006628</v>
       </c>
       <c r="AC14" t="n">
-        <v>3146.728725298572</v>
+        <v>3270.521932905663</v>
       </c>
       <c r="AD14" t="n">
-        <v>2542480.684303803</v>
+        <v>2642502.60124206</v>
       </c>
       <c r="AE14" t="n">
-        <v>3478734.238596152</v>
+        <v>3615588.638006628</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.072231242075028e-06</v>
+        <v>1.869877659799903e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.73333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3146728.725298572</v>
+        <v>3270521.932905663</v>
       </c>
     </row>
     <row r="15">
@@ -17930,28 +17930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2554.839915013418</v>
+        <v>2654.861831951675</v>
       </c>
       <c r="AB15" t="n">
-        <v>3495.644683303824</v>
+        <v>3632.499082714301</v>
       </c>
       <c r="AC15" t="n">
-        <v>3162.025260897302</v>
+        <v>3285.818468504393</v>
       </c>
       <c r="AD15" t="n">
-        <v>2554839.915013418</v>
+        <v>2654861.831951675</v>
       </c>
       <c r="AE15" t="n">
-        <v>3495644.683303825</v>
+        <v>3632499.082714301</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.072231242075028e-06</v>
+        <v>1.869877659799903e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.73333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>3162025.260897302</v>
+        <v>3285818.468504393</v>
       </c>
     </row>
   </sheetData>
@@ -18227,28 +18227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>16880.13605247509</v>
+        <v>17148.82385954915</v>
       </c>
       <c r="AB2" t="n">
-        <v>23096.14684604216</v>
+        <v>23463.77735735037</v>
       </c>
       <c r="AC2" t="n">
-        <v>20891.88300670071</v>
+        <v>21224.42737798232</v>
       </c>
       <c r="AD2" t="n">
-        <v>16880136.05247509</v>
+        <v>17148823.85954915</v>
       </c>
       <c r="AE2" t="n">
-        <v>23096146.84604216</v>
+        <v>23463777.35735037</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.923310884487711e-07</v>
+        <v>6.66936848079092e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.05555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>20891883.00670071</v>
+        <v>21224427.37798232</v>
       </c>
     </row>
     <row r="3">
@@ -18333,28 +18333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6024.721137761611</v>
+        <v>6179.697176764781</v>
       </c>
       <c r="AB3" t="n">
-        <v>8243.289252623852</v>
+        <v>8455.334306248307</v>
       </c>
       <c r="AC3" t="n">
-        <v>7456.56129588225</v>
+        <v>7648.36906719588</v>
       </c>
       <c r="AD3" t="n">
-        <v>6024721.137761611</v>
+        <v>6179697.176764781</v>
       </c>
       <c r="AE3" t="n">
-        <v>8243289.252623852</v>
+        <v>8455334.306248307</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.095193035102402e-07</v>
+        <v>1.206135791597308e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.7875</v>
       </c>
       <c r="AH3" t="n">
-        <v>7456561.29588225</v>
+        <v>7648369.06719588</v>
       </c>
     </row>
     <row r="4">
@@ -18439,28 +18439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4669.612294531457</v>
+        <v>4803.913482886928</v>
       </c>
       <c r="AB4" t="n">
-        <v>6389.169550133372</v>
+        <v>6572.926360991604</v>
       </c>
       <c r="AC4" t="n">
-        <v>5779.396175524185</v>
+        <v>5945.615494258406</v>
       </c>
       <c r="AD4" t="n">
-        <v>4669612.294531457</v>
+        <v>4803913.482886928</v>
       </c>
       <c r="AE4" t="n">
-        <v>6389169.550133373</v>
+        <v>6572926.360991605</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.261304553617677e-07</v>
+        <v>1.404367021180037e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.72361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>5779396.175524185</v>
+        <v>5945615.494258407</v>
       </c>
     </row>
     <row r="5">
@@ -18545,28 +18545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4139.834071847953</v>
+        <v>4253.545839918847</v>
       </c>
       <c r="AB5" t="n">
-        <v>5664.3036136921</v>
+        <v>5819.889071375859</v>
       </c>
       <c r="AC5" t="n">
-        <v>5123.710426701164</v>
+        <v>5264.44702666914</v>
       </c>
       <c r="AD5" t="n">
-        <v>4139834.071847953</v>
+        <v>4253545.839918847</v>
       </c>
       <c r="AE5" t="n">
-        <v>5664303.6136921</v>
+        <v>5819889.071375859</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.875976198938467e-07</v>
+        <v>1.508857127063493e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.00833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>5123710.426701164</v>
+        <v>5264447.02666914</v>
       </c>
     </row>
     <row r="6">
@@ -18651,28 +18651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3843.631275308682</v>
+        <v>3957.257702525005</v>
       </c>
       <c r="AB6" t="n">
-        <v>5259.025879921925</v>
+        <v>5414.494570483484</v>
       </c>
       <c r="AC6" t="n">
-        <v>4757.111831031157</v>
+        <v>4897.742807967194</v>
       </c>
       <c r="AD6" t="n">
-        <v>3843631.275308682</v>
+        <v>3957257.702525005</v>
       </c>
       <c r="AE6" t="n">
-        <v>5259025.879921924</v>
+        <v>5414494.570483484</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.256837338024791e-07</v>
+        <v>1.573600996498457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.06388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>4757111.831031157</v>
+        <v>4897742.807967194</v>
       </c>
     </row>
     <row r="7">
@@ -18757,28 +18757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3643.216817061206</v>
+        <v>3756.757903422957</v>
       </c>
       <c r="AB7" t="n">
-        <v>4984.809976485826</v>
+        <v>5140.16189992519</v>
       </c>
       <c r="AC7" t="n">
-        <v>4509.066708554573</v>
+        <v>4649.592062458672</v>
       </c>
       <c r="AD7" t="n">
-        <v>3643216.817061206</v>
+        <v>3756757.903422957</v>
       </c>
       <c r="AE7" t="n">
-        <v>4984809.976485826</v>
+        <v>5140161.89992519</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.518587464501109e-07</v>
+        <v>1.618096783214379e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.45694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>4509066.708554572</v>
+        <v>4649592.062458672</v>
       </c>
     </row>
     <row r="8">
@@ -18863,28 +18863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3508.162427953323</v>
+        <v>3611.536770700368</v>
       </c>
       <c r="AB8" t="n">
-        <v>4800.02260312927</v>
+        <v>4941.463939429919</v>
       </c>
       <c r="AC8" t="n">
-        <v>4341.915182760466</v>
+        <v>4469.857556438738</v>
       </c>
       <c r="AD8" t="n">
-        <v>3508162.427953323</v>
+        <v>3611536.770700368</v>
       </c>
       <c r="AE8" t="n">
-        <v>4800022.60312927</v>
+        <v>4941463.939429919</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.706812274551494e-07</v>
+        <v>1.650093753437064e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.04027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>4341915.182760467</v>
+        <v>4469857.556438738</v>
       </c>
     </row>
     <row r="9">
@@ -18969,28 +18969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3387.699279065725</v>
+        <v>3501.325616773496</v>
       </c>
       <c r="AB9" t="n">
-        <v>4635.199608362195</v>
+        <v>4790.668176454209</v>
       </c>
       <c r="AC9" t="n">
-        <v>4192.822663283442</v>
+        <v>4333.453529438252</v>
       </c>
       <c r="AD9" t="n">
-        <v>3387699.279065725</v>
+        <v>3501325.616773496</v>
       </c>
       <c r="AE9" t="n">
-        <v>4635199.608362195</v>
+        <v>4790668.176454209</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.853862907403358e-07</v>
+        <v>1.675091386423537e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.72777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>4192822.663283442</v>
+        <v>4333453.529438253</v>
       </c>
     </row>
     <row r="10">
@@ -19075,28 +19075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3298.088862965634</v>
+        <v>3411.544608472813</v>
       </c>
       <c r="AB10" t="n">
-        <v>4512.590683721498</v>
+        <v>4667.825840038664</v>
       </c>
       <c r="AC10" t="n">
-        <v>4081.91536232775</v>
+        <v>4222.33509319991</v>
       </c>
       <c r="AD10" t="n">
-        <v>3298088.862965634</v>
+        <v>3411544.608472813</v>
       </c>
       <c r="AE10" t="n">
-        <v>4512590.683721498</v>
+        <v>4667825.840038664</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.965621388370771e-07</v>
+        <v>1.694089587493256e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.49444444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>4081915.36232775</v>
+        <v>4222335.093199911</v>
       </c>
     </row>
     <row r="11">
@@ -19181,28 +19181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3224.519653135116</v>
+        <v>3327.808655027589</v>
       </c>
       <c r="AB11" t="n">
-        <v>4411.930045186905</v>
+        <v>4553.254614365357</v>
       </c>
       <c r="AC11" t="n">
-        <v>3990.86163385681</v>
+        <v>4118.698384503143</v>
       </c>
       <c r="AD11" t="n">
-        <v>3224519.653135116</v>
+        <v>3327808.655027589</v>
       </c>
       <c r="AE11" t="n">
-        <v>4411930.045186905</v>
+        <v>4553254.614365357</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.005679278073893e-06</v>
+        <v>1.709588119944869e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.30833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3990861.63385681</v>
+        <v>4118698.384503143</v>
       </c>
     </row>
     <row r="12">
@@ -19287,28 +19287,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3150.544743285672</v>
+        <v>3253.833745178146</v>
       </c>
       <c r="AB12" t="n">
-        <v>4310.714309988198</v>
+        <v>4452.03887916665</v>
       </c>
       <c r="AC12" t="n">
-        <v>3899.305786368294</v>
+        <v>4027.142537014628</v>
       </c>
       <c r="AD12" t="n">
-        <v>3150544.743285672</v>
+        <v>3253833.745178146</v>
       </c>
       <c r="AE12" t="n">
-        <v>4310714.309988198</v>
+        <v>4452038.87916665</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.014208214779301e-06</v>
+        <v>1.724086747077023e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.13888888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>3899305.786368294</v>
+        <v>4027142.537014627</v>
       </c>
     </row>
     <row r="13">
@@ -19393,28 +19393,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3096.033539606687</v>
+        <v>3199.32254149916</v>
       </c>
       <c r="AB13" t="n">
-        <v>4236.129676250027</v>
+        <v>4377.454245428477</v>
       </c>
       <c r="AC13" t="n">
-        <v>3831.839405393906</v>
+        <v>3959.676156040239</v>
       </c>
       <c r="AD13" t="n">
-        <v>3096033.539606687</v>
+        <v>3199322.54149916</v>
       </c>
       <c r="AE13" t="n">
-        <v>4236129.676250027</v>
+        <v>4377454.245428477</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.019502037561968e-06</v>
+        <v>1.733085894952154e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.03472222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>3831839.405393905</v>
+        <v>3959676.156040239</v>
       </c>
     </row>
     <row r="14">
@@ -19499,28 +19499,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3020.253342275339</v>
+        <v>3133.794339128539</v>
       </c>
       <c r="AB14" t="n">
-        <v>4132.443867074915</v>
+        <v>4287.795668044731</v>
       </c>
       <c r="AC14" t="n">
-        <v>3738.049224322524</v>
+        <v>3878.574467445396</v>
       </c>
       <c r="AD14" t="n">
-        <v>3020253.34227534</v>
+        <v>3133794.339128539</v>
       </c>
       <c r="AE14" t="n">
-        <v>4132443.867074915</v>
+        <v>4287795.668044731</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.025531113508894e-06</v>
+        <v>1.743334924476607e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.91388888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>3738049.224322524</v>
+        <v>3878574.467445396</v>
       </c>
     </row>
     <row r="15">
@@ -19605,28 +19605,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2968.772416578311</v>
+        <v>3082.313413431511</v>
       </c>
       <c r="AB15" t="n">
-        <v>4062.005393358087</v>
+        <v>4217.357194327902</v>
       </c>
       <c r="AC15" t="n">
-        <v>3674.333299676213</v>
+        <v>3814.858542799086</v>
       </c>
       <c r="AD15" t="n">
-        <v>2968772.416578311</v>
+        <v>3082313.413431511</v>
       </c>
       <c r="AE15" t="n">
-        <v>4062005.393358087</v>
+        <v>4217357.194327902</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.029501480595895e-06</v>
+        <v>1.750084285382955e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.8375</v>
       </c>
       <c r="AH15" t="n">
-        <v>3674333.299676213</v>
+        <v>3814858.542799086</v>
       </c>
     </row>
     <row r="16">
@@ -19711,28 +19711,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2905.490084288518</v>
+        <v>3008.864337527011</v>
       </c>
       <c r="AB16" t="n">
-        <v>3975.419714499722</v>
+        <v>4116.860928330822</v>
       </c>
       <c r="AC16" t="n">
-        <v>3596.01123648433</v>
+        <v>3723.953499381376</v>
       </c>
       <c r="AD16" t="n">
-        <v>2905490.084288517</v>
+        <v>3008864.337527011</v>
       </c>
       <c r="AE16" t="n">
-        <v>3975419.714499722</v>
+        <v>4116860.928330822</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.03464825274571e-06</v>
+        <v>1.75883345692822e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.74027777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>3596011.23648433</v>
+        <v>3723953.499381376</v>
       </c>
     </row>
     <row r="17">
@@ -19817,28 +19817,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2864.651734126421</v>
+        <v>2968.025987364915</v>
       </c>
       <c r="AB17" t="n">
-        <v>3919.542882147085</v>
+        <v>4060.984095978185</v>
       </c>
       <c r="AC17" t="n">
-        <v>3545.467210587803</v>
+        <v>3673.409473484849</v>
       </c>
       <c r="AD17" t="n">
-        <v>2864651.734126421</v>
+        <v>2968025.987364915</v>
       </c>
       <c r="AE17" t="n">
-        <v>3919542.882147084</v>
+        <v>4060984.095978185</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.037442214769895e-06</v>
+        <v>1.76358300719565e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.68611111111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>3545467.210587803</v>
+        <v>3673409.473484849</v>
       </c>
     </row>
     <row r="18">
@@ -19923,28 +19923,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2833.546076219013</v>
+        <v>2936.920329457507</v>
       </c>
       <c r="AB18" t="n">
-        <v>3876.982748713391</v>
+        <v>4018.423962544492</v>
       </c>
       <c r="AC18" t="n">
-        <v>3506.968956555501</v>
+        <v>3634.911219452546</v>
       </c>
       <c r="AD18" t="n">
-        <v>2833546.076219013</v>
+        <v>2936920.329457507</v>
       </c>
       <c r="AE18" t="n">
-        <v>3876982.748713391</v>
+        <v>4018423.962544492</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.038912721098414e-06</v>
+        <v>1.766082770494297e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.65833333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>3506968.956555502</v>
+        <v>3634911.219452546</v>
       </c>
     </row>
     <row r="19">
@@ -20029,28 +20029,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2837.608272313682</v>
+        <v>2940.982525552176</v>
       </c>
       <c r="AB19" t="n">
-        <v>3882.540824621562</v>
+        <v>4023.982038452662</v>
       </c>
       <c r="AC19" t="n">
-        <v>3511.996577499804</v>
+        <v>3639.93884039685</v>
       </c>
       <c r="AD19" t="n">
-        <v>2837608.272313682</v>
+        <v>2940982.525552176</v>
       </c>
       <c r="AE19" t="n">
-        <v>3882540.824621561</v>
+        <v>4023982.038452662</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.039500923629821e-06</v>
+        <v>1.767082675813756e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.64861111111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>3511996.577499804</v>
+        <v>3639938.84039685</v>
       </c>
     </row>
     <row r="20">
@@ -20135,28 +20135,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2843.82151465105</v>
+        <v>2947.195767889544</v>
       </c>
       <c r="AB20" t="n">
-        <v>3891.042056896455</v>
+        <v>4032.483270727555</v>
       </c>
       <c r="AC20" t="n">
-        <v>3519.686464097936</v>
+        <v>3647.628726994982</v>
       </c>
       <c r="AD20" t="n">
-        <v>2843821.51465105</v>
+        <v>2947195.767889544</v>
       </c>
       <c r="AE20" t="n">
-        <v>3891042.056896455</v>
+        <v>4032483.270727555</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.040089126161229e-06</v>
+        <v>1.768082581133215e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.6375</v>
       </c>
       <c r="AH20" t="n">
-        <v>3519686.464097936</v>
+        <v>3647628.726994982</v>
       </c>
     </row>
     <row r="21">
@@ -20241,28 +20241,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2856.699498849056</v>
+        <v>2960.073752087551</v>
       </c>
       <c r="AB21" t="n">
-        <v>3908.662283012734</v>
+        <v>4050.103496843834</v>
       </c>
       <c r="AC21" t="n">
-        <v>3535.625040563819</v>
+        <v>3663.567303460865</v>
       </c>
       <c r="AD21" t="n">
-        <v>2856699.498849057</v>
+        <v>2960073.752087551</v>
       </c>
       <c r="AE21" t="n">
-        <v>3908662.283012734</v>
+        <v>4050103.496843834</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.040089126161229e-06</v>
+        <v>1.768082581133215e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.63611111111111</v>
       </c>
       <c r="AH21" t="n">
-        <v>3535625.040563819</v>
+        <v>3663567.303460865</v>
       </c>
     </row>
   </sheetData>
@@ -20538,28 +20538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6341.149324869524</v>
+        <v>6513.925277661152</v>
       </c>
       <c r="AB2" t="n">
-        <v>8676.240258051303</v>
+        <v>8912.639938997901</v>
       </c>
       <c r="AC2" t="n">
-        <v>7848.192065002241</v>
+        <v>8062.030092188324</v>
       </c>
       <c r="AD2" t="n">
-        <v>6341149.324869524</v>
+        <v>6513925.277661152</v>
       </c>
       <c r="AE2" t="n">
-        <v>8676240.258051302</v>
+        <v>8912639.938997902</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.54321914214997e-07</v>
+        <v>1.179897250029775e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.76805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>7848192.065002241</v>
+        <v>8062030.092188324</v>
       </c>
     </row>
     <row r="3">
@@ -20644,28 +20644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3529.56794251673</v>
+        <v>3644.780447504557</v>
       </c>
       <c r="AB3" t="n">
-        <v>4829.310572499578</v>
+        <v>4986.949404640926</v>
       </c>
       <c r="AC3" t="n">
-        <v>4368.407949439995</v>
+        <v>4511.001952689257</v>
       </c>
       <c r="AD3" t="n">
-        <v>3529567.94251673</v>
+        <v>3644780.447504557</v>
       </c>
       <c r="AE3" t="n">
-        <v>4829310.572499579</v>
+        <v>4986949.404640926</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.101326698818376e-07</v>
+        <v>1.641184577539592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.27638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>4368407.949439995</v>
+        <v>4511001.952689257</v>
       </c>
     </row>
     <row r="4">
@@ -20750,28 +20750,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2960.057661340123</v>
+        <v>3065.662019966796</v>
       </c>
       <c r="AB4" t="n">
-        <v>4050.08148077333</v>
+        <v>4194.574023181844</v>
       </c>
       <c r="AC4" t="n">
-        <v>3663.54738857323</v>
+        <v>3794.249765530827</v>
       </c>
       <c r="AD4" t="n">
-        <v>2960057.661340123</v>
+        <v>3065662.019966796</v>
       </c>
       <c r="AE4" t="n">
-        <v>4050081.48077333</v>
+        <v>4194574.023181845</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.995391653325617e-07</v>
+        <v>1.802405645985187e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3663547.38857323</v>
+        <v>3794249.765530827</v>
       </c>
     </row>
     <row r="5">
@@ -20856,28 +20856,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2691.836146532923</v>
+        <v>2797.355164305024</v>
       </c>
       <c r="AB5" t="n">
-        <v>3683.088971116003</v>
+        <v>3827.46474640232</v>
       </c>
       <c r="AC5" t="n">
-        <v>3331.58012896039</v>
+        <v>3462.176882886048</v>
       </c>
       <c r="AD5" t="n">
-        <v>2691836.146532923</v>
+        <v>2797355.164305024</v>
       </c>
       <c r="AE5" t="n">
-        <v>3683088.971116003</v>
+        <v>3827464.74640232</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.045674189675462e-06</v>
+        <v>1.885598012264943e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.12916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3331580.12896039</v>
+        <v>3462176.882886048</v>
       </c>
     </row>
     <row r="6">
@@ -20962,28 +20962,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2510.557503850647</v>
+        <v>2616.161772968769</v>
       </c>
       <c r="AB6" t="n">
-        <v>3435.055534748814</v>
+        <v>3579.547954687781</v>
       </c>
       <c r="AC6" t="n">
-        <v>3107.218655642981</v>
+        <v>3237.920921819351</v>
       </c>
       <c r="AD6" t="n">
-        <v>2510557.503850647</v>
+        <v>2616161.772968769</v>
       </c>
       <c r="AE6" t="n">
-        <v>3435055.534748815</v>
+        <v>3579547.954687781</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.073832463153715e-06</v>
+        <v>1.936374042718449e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.57638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>3107218.655642981</v>
+        <v>3237920.921819352</v>
       </c>
     </row>
     <row r="7">
@@ -21068,28 +21068,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2379.942796332521</v>
+        <v>2475.93900859804</v>
       </c>
       <c r="AB7" t="n">
-        <v>3256.342729608294</v>
+        <v>3387.688982283974</v>
       </c>
       <c r="AC7" t="n">
-        <v>2945.56194980008</v>
+        <v>3064.372700466013</v>
       </c>
       <c r="AD7" t="n">
-        <v>2379942.79633252</v>
+        <v>2475939.00859804</v>
       </c>
       <c r="AE7" t="n">
-        <v>3256342.729608294</v>
+        <v>3387688.982283975</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.092922818054226e-06</v>
+        <v>1.970798470144554e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.21666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2945561.94980008</v>
+        <v>3064372.700466013</v>
       </c>
     </row>
     <row r="8">
@@ -21174,28 +21174,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2262.632961191609</v>
+        <v>2368.151889455159</v>
       </c>
       <c r="AB8" t="n">
-        <v>3095.834237823819</v>
+        <v>3240.209890640588</v>
       </c>
       <c r="AC8" t="n">
-        <v>2800.372163196439</v>
+        <v>2930.96880634087</v>
       </c>
       <c r="AD8" t="n">
-        <v>2262632.961191609</v>
+        <v>2368151.889455159</v>
       </c>
       <c r="AE8" t="n">
-        <v>3095834.237823818</v>
+        <v>3240209.890640588</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.106126980193745e-06</v>
+        <v>1.994608699114278e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.975</v>
       </c>
       <c r="AH8" t="n">
-        <v>2800372.163196439</v>
+        <v>2930968.80634087</v>
       </c>
     </row>
     <row r="9">
@@ -21280,28 +21280,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2243.515909387431</v>
+        <v>2349.034837650982</v>
       </c>
       <c r="AB9" t="n">
-        <v>3069.67744416054</v>
+        <v>3214.053096977308</v>
       </c>
       <c r="AC9" t="n">
-        <v>2776.711737209093</v>
+        <v>2907.308380353525</v>
       </c>
       <c r="AD9" t="n">
-        <v>2243515.909387431</v>
+        <v>2349034.837650982</v>
       </c>
       <c r="AE9" t="n">
-        <v>3069677.44416054</v>
+        <v>3214053.096977308</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.109308706010497e-06</v>
+        <v>2.000346103685295e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.91805555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>2776711.737209093</v>
+        <v>2907308.380353525</v>
       </c>
     </row>
     <row r="10">
@@ -21386,28 +21386,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2252.48026020078</v>
+        <v>2357.999188464331</v>
       </c>
       <c r="AB10" t="n">
-        <v>3081.94286442261</v>
+        <v>3226.318517239379</v>
       </c>
       <c r="AC10" t="n">
-        <v>2787.806562975977</v>
+        <v>2918.403206120409</v>
       </c>
       <c r="AD10" t="n">
-        <v>2252480.26020078</v>
+        <v>2357999.188464331</v>
       </c>
       <c r="AE10" t="n">
-        <v>3081942.86442261</v>
+        <v>3226318.517239379</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.109626878592172e-06</v>
+        <v>2.000919844142397e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.9125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2787806.562975977</v>
+        <v>2918403.20612041</v>
       </c>
     </row>
     <row r="11">
@@ -21492,28 +21492,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2265.699180831637</v>
+        <v>2371.218109095188</v>
       </c>
       <c r="AB11" t="n">
-        <v>3100.029574807369</v>
+        <v>3244.405227624138</v>
       </c>
       <c r="AC11" t="n">
-        <v>2804.167103106472</v>
+        <v>2934.763746250903</v>
       </c>
       <c r="AD11" t="n">
-        <v>2265699.180831637</v>
+        <v>2371218.109095188</v>
       </c>
       <c r="AE11" t="n">
-        <v>3100029.574807369</v>
+        <v>3244405.227624138</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.109626878592172e-06</v>
+        <v>2.000919844142397e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.9125</v>
       </c>
       <c r="AH11" t="n">
-        <v>2804167.103106472</v>
+        <v>2934763.746250903</v>
       </c>
     </row>
   </sheetData>
@@ -21789,28 +21789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4299.260582551851</v>
+        <v>4437.865797843402</v>
       </c>
       <c r="AB2" t="n">
-        <v>5882.437999038446</v>
+        <v>6072.083769430894</v>
       </c>
       <c r="AC2" t="n">
-        <v>5321.026372463579</v>
+        <v>5492.572616699274</v>
       </c>
       <c r="AD2" t="n">
-        <v>4299260.582551851</v>
+        <v>4437865.797843402</v>
       </c>
       <c r="AE2" t="n">
-        <v>5882437.999038446</v>
+        <v>6072083.769430893</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.869813896644333e-07</v>
+        <v>1.468255720227772e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.24722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>5321026.372463578</v>
+        <v>5492572.616699275</v>
       </c>
     </row>
     <row r="3">
@@ -21895,28 +21895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2705.682081823985</v>
+        <v>2816.617386963128</v>
       </c>
       <c r="AB3" t="n">
-        <v>3702.033590620789</v>
+        <v>3853.820169232427</v>
       </c>
       <c r="AC3" t="n">
-        <v>3348.716700568579</v>
+        <v>3486.016981151317</v>
       </c>
       <c r="AD3" t="n">
-        <v>2705682.081823985</v>
+        <v>2816617.386963129</v>
       </c>
       <c r="AE3" t="n">
-        <v>3702033.590620789</v>
+        <v>3853820.169232427</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.009702591540407e-06</v>
+        <v>1.883782291713584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.79583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3348716.700568579</v>
+        <v>3486016.981151317</v>
       </c>
     </row>
     <row r="4">
@@ -22001,28 +22001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2314.92144653193</v>
+        <v>2416.519779825576</v>
       </c>
       <c r="AB4" t="n">
-        <v>3167.377650271617</v>
+        <v>3306.388972086119</v>
       </c>
       <c r="AC4" t="n">
-        <v>2865.087572772026</v>
+        <v>2990.831849136162</v>
       </c>
       <c r="AD4" t="n">
-        <v>2314921.44653193</v>
+        <v>2416519.779825576</v>
       </c>
       <c r="AE4" t="n">
-        <v>3167377.650271617</v>
+        <v>3306388.972086119</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.086594435045207e-06</v>
+        <v>2.027237893774163e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.18333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2865087.572772026</v>
+        <v>2990831.849136163</v>
       </c>
     </row>
     <row r="5">
@@ -22107,28 +22107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2094.674946704888</v>
+        <v>2187.10690035363</v>
       </c>
       <c r="AB5" t="n">
-        <v>2866.026672618269</v>
+        <v>2992.496149410475</v>
       </c>
       <c r="AC5" t="n">
-        <v>2592.497109477279</v>
+        <v>2706.896516905462</v>
       </c>
       <c r="AD5" t="n">
-        <v>2094674.946704889</v>
+        <v>2187106.90035363</v>
       </c>
       <c r="AE5" t="n">
-        <v>2866026.672618269</v>
+        <v>2992496.149410475</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.125703217517476e-06</v>
+        <v>2.100202381029112e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.44583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2592497.109477279</v>
+        <v>2706896.516905462</v>
       </c>
     </row>
     <row r="6">
@@ -22213,28 +22213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2011.013974821703</v>
+        <v>2103.445928470444</v>
       </c>
       <c r="AB6" t="n">
-        <v>2751.558040026102</v>
+        <v>2878.027516818308</v>
       </c>
       <c r="AC6" t="n">
-        <v>2488.953202521974</v>
+        <v>2603.352609950157</v>
       </c>
       <c r="AD6" t="n">
-        <v>2011013.974821703</v>
+        <v>2103445.928470444</v>
       </c>
       <c r="AE6" t="n">
-        <v>2751558.040026102</v>
+        <v>2878027.516818308</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.139623292634725e-06</v>
+        <v>2.126172791746975e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.19722222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>2488953.202521974</v>
+        <v>2603352.609950157</v>
       </c>
     </row>
     <row r="7">
@@ -22319,28 +22319,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2019.773275296192</v>
+        <v>2112.205228944934</v>
       </c>
       <c r="AB7" t="n">
-        <v>2763.542901368363</v>
+        <v>2890.012378160568</v>
       </c>
       <c r="AC7" t="n">
-        <v>2499.794245518588</v>
+        <v>2614.193652946771</v>
       </c>
       <c r="AD7" t="n">
-        <v>2019773.275296192</v>
+        <v>2112205.228944934</v>
       </c>
       <c r="AE7" t="n">
-        <v>2763542.901368363</v>
+        <v>2890012.378160568</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.140617583714528e-06</v>
+        <v>2.128027821083966e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.17916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2499794.245518588</v>
+        <v>2614193.652946771</v>
       </c>
     </row>
   </sheetData>
@@ -41757,28 +41757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3166.737901527123</v>
+        <v>3292.18807772345</v>
       </c>
       <c r="AB2" t="n">
-        <v>4332.870503485874</v>
+        <v>4504.516969028868</v>
       </c>
       <c r="AC2" t="n">
-        <v>3919.347423854964</v>
+        <v>4074.612191633856</v>
       </c>
       <c r="AD2" t="n">
-        <v>3166737.901527123</v>
+        <v>3292188.07772345</v>
       </c>
       <c r="AE2" t="n">
-        <v>4332870.503485874</v>
+        <v>4504516.969028868</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.970655806627738e-07</v>
+        <v>1.725090378042639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.53888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3919347.423854964</v>
+        <v>4074612.191633856</v>
       </c>
     </row>
     <row r="3">
@@ -41863,28 +41863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2143.88468184204</v>
+        <v>2251.315871890812</v>
       </c>
       <c r="AB3" t="n">
-        <v>2933.357603213214</v>
+        <v>3080.349696967726</v>
       </c>
       <c r="AC3" t="n">
-        <v>2653.402070555797</v>
+        <v>2786.365445186962</v>
       </c>
       <c r="AD3" t="n">
-        <v>2143884.68184204</v>
+        <v>2251315.871890812</v>
       </c>
       <c r="AE3" t="n">
-        <v>2933357.603213214</v>
+        <v>3080349.696967726</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.091975491844424e-06</v>
+        <v>2.099909365207646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.80416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2653402.070555797</v>
+        <v>2786365.445186962</v>
       </c>
     </row>
     <row r="4">
@@ -41969,28 +41969,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1851.733490785341</v>
+        <v>1950.28319904219</v>
       </c>
       <c r="AB4" t="n">
-        <v>2533.623454808535</v>
+        <v>2668.463513351837</v>
       </c>
       <c r="AC4" t="n">
-        <v>2291.817988244461</v>
+        <v>2413.7891008496</v>
       </c>
       <c r="AD4" t="n">
-        <v>1851733.490785341</v>
+        <v>1950283.19904219</v>
       </c>
       <c r="AE4" t="n">
-        <v>2533623.454808535</v>
+        <v>2668463.513351837</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.154545516102385e-06</v>
+        <v>2.220233842177943e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.62222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2291817.98824446</v>
+        <v>2413789.100849601</v>
       </c>
     </row>
     <row r="5">
@@ -42075,28 +42075,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1834.158530922109</v>
+        <v>1932.708239178957</v>
       </c>
       <c r="AB5" t="n">
-        <v>2509.576619371152</v>
+        <v>2644.416677914454</v>
       </c>
       <c r="AC5" t="n">
-        <v>2270.066149031275</v>
+        <v>2392.037261636416</v>
       </c>
       <c r="AD5" t="n">
-        <v>1834158.530922109</v>
+        <v>1932708.239178956</v>
       </c>
       <c r="AE5" t="n">
-        <v>2509576.619371152</v>
+        <v>2644416.677914454</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.160202531994201e-06</v>
+        <v>2.231112493520462e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2270066.149031275</v>
+        <v>2392037.261636415</v>
       </c>
     </row>
     <row r="6">
@@ -42181,28 +42181,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1849.955992869552</v>
+        <v>1948.5057011264</v>
       </c>
       <c r="AB6" t="n">
-        <v>2531.191403742478</v>
+        <v>2666.031462285781</v>
       </c>
       <c r="AC6" t="n">
-        <v>2289.618048718743</v>
+        <v>2411.589161323884</v>
       </c>
       <c r="AD6" t="n">
-        <v>1849955.992869552</v>
+        <v>1948505.7011264</v>
       </c>
       <c r="AE6" t="n">
-        <v>2531191.403742478</v>
+        <v>2666031.462285781</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.160202531994201e-06</v>
+        <v>2.231112493520462e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2289618.048718743</v>
+        <v>2411589.161323884</v>
       </c>
     </row>
   </sheetData>
@@ -42478,28 +42478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1585.582749035565</v>
+        <v>1686.151616981633</v>
       </c>
       <c r="AB2" t="n">
-        <v>2169.464268204455</v>
+        <v>2307.067030113586</v>
       </c>
       <c r="AC2" t="n">
-        <v>1962.413643309245</v>
+        <v>2086.883790748458</v>
       </c>
       <c r="AD2" t="n">
-        <v>1585582.749035564</v>
+        <v>1686151.616981633</v>
       </c>
       <c r="AE2" t="n">
-        <v>2169464.268204455</v>
+        <v>2307067.030113586</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.136512544437842e-06</v>
+        <v>2.344170002877736e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.48611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1962413.643309245</v>
+        <v>2086883.790748458</v>
       </c>
     </row>
     <row r="3">
@@ -42584,28 +42584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1511.405077839292</v>
+        <v>1612.05919713138</v>
       </c>
       <c r="AB3" t="n">
-        <v>2067.971105985822</v>
+        <v>2205.690512547602</v>
       </c>
       <c r="AC3" t="n">
-        <v>1870.606846046211</v>
+        <v>1995.182505736136</v>
       </c>
       <c r="AD3" t="n">
-        <v>1511405.077839292</v>
+        <v>1612059.19713138</v>
       </c>
       <c r="AE3" t="n">
-        <v>2067971.105985822</v>
+        <v>2205690.512547602</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.163743215730832e-06</v>
+        <v>2.400335967006909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.95972222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>1870606.846046211</v>
+        <v>1995182.505736136</v>
       </c>
     </row>
   </sheetData>
@@ -42881,28 +42881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9116.519804856667</v>
+        <v>9314.553732059821</v>
       </c>
       <c r="AB2" t="n">
-        <v>12473.62458947408</v>
+        <v>12744.58334531372</v>
       </c>
       <c r="AC2" t="n">
-        <v>11283.15936549626</v>
+        <v>11528.25819797156</v>
       </c>
       <c r="AD2" t="n">
-        <v>9116519.804856667</v>
+        <v>9314553.732059821</v>
       </c>
       <c r="AE2" t="n">
-        <v>12473624.58947407</v>
+        <v>12744583.34531372</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.443911220063348e-07</v>
+        <v>9.564737263462411e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.26111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>11283159.36549626</v>
+        <v>11528258.19797156</v>
       </c>
     </row>
     <row r="3">
@@ -42987,28 +42987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4385.511549391241</v>
+        <v>4524.084031264721</v>
       </c>
       <c r="AB3" t="n">
-        <v>6000.450376992208</v>
+        <v>6190.051360077956</v>
       </c>
       <c r="AC3" t="n">
-        <v>5427.775814696844</v>
+        <v>5599.281546063528</v>
       </c>
       <c r="AD3" t="n">
-        <v>4385511.549391241</v>
+        <v>4524084.031264721</v>
       </c>
       <c r="AE3" t="n">
-        <v>6000450.376992209</v>
+        <v>6190051.360077956</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.265882157767186e-07</v>
+        <v>1.45228288805314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.85277777777777</v>
       </c>
       <c r="AH3" t="n">
-        <v>5427775.814696844</v>
+        <v>5599281.546063528</v>
       </c>
     </row>
     <row r="4">
@@ -43093,28 +43093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3585.102871864997</v>
+        <v>3694.115447045609</v>
       </c>
       <c r="AB4" t="n">
-        <v>4905.295912862051</v>
+        <v>5054.451727519567</v>
       </c>
       <c r="AC4" t="n">
-        <v>4437.141355564364</v>
+        <v>4572.061948612462</v>
       </c>
       <c r="AD4" t="n">
-        <v>3585102.871864997</v>
+        <v>3694115.447045609</v>
       </c>
       <c r="AE4" t="n">
-        <v>4905295.912862051</v>
+        <v>5054451.727519567</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.276806315930447e-07</v>
+        <v>1.629898274771478e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.03611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>4437141.355564364</v>
+        <v>4572061.948612463</v>
       </c>
     </row>
     <row r="5">
@@ -43199,28 +43199,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3225.97040896195</v>
+        <v>3344.722438895055</v>
       </c>
       <c r="AB5" t="n">
-        <v>4413.91503331201</v>
+        <v>4576.396799636308</v>
       </c>
       <c r="AC5" t="n">
-        <v>3992.657177501203</v>
+        <v>4139.631912092093</v>
       </c>
       <c r="AD5" t="n">
-        <v>3225970.40896195</v>
+        <v>3344722.438895056</v>
       </c>
       <c r="AE5" t="n">
-        <v>4413915.03331201</v>
+        <v>4576396.799636308</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.799963414523307e-07</v>
+        <v>1.721814913255854e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.80555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>3992657.177501203</v>
+        <v>4139631.912092094</v>
       </c>
     </row>
     <row r="6">
@@ -43305,28 +43305,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3023.049199406116</v>
+        <v>3122.151548616541</v>
       </c>
       <c r="AB6" t="n">
-        <v>4136.269282145755</v>
+        <v>4271.865488422547</v>
       </c>
       <c r="AC6" t="n">
-        <v>3741.509547148006</v>
+        <v>3864.164641808208</v>
       </c>
       <c r="AD6" t="n">
-        <v>3023049.199406116</v>
+        <v>3122151.548616541</v>
       </c>
       <c r="AE6" t="n">
-        <v>4136269.282145755</v>
+        <v>4271865.488422547</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.012001246307423e-06</v>
+        <v>1.778046268563943e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.11666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>3741509.547148007</v>
+        <v>3864164.641808208</v>
       </c>
     </row>
     <row r="7">
@@ -43411,28 +43411,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2873.880612371999</v>
+        <v>2982.807757189489</v>
       </c>
       <c r="AB7" t="n">
-        <v>3932.170240512058</v>
+        <v>4081.209165577829</v>
       </c>
       <c r="AC7" t="n">
-        <v>3556.889431593032</v>
+        <v>3691.704290827965</v>
       </c>
       <c r="AD7" t="n">
-        <v>2873880.612371999</v>
+        <v>2982807.757189489</v>
       </c>
       <c r="AE7" t="n">
-        <v>3932170.240512058</v>
+        <v>4081209.165577828</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.033389139455778e-06</v>
+        <v>1.81562395312079e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.68055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>3556889.431593033</v>
+        <v>3691704.290827965</v>
       </c>
     </row>
     <row r="8">
@@ -43517,28 +43517,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2759.778624875435</v>
+        <v>2858.795633231288</v>
       </c>
       <c r="AB8" t="n">
-        <v>3776.050867394831</v>
+        <v>3911.530306549425</v>
       </c>
       <c r="AC8" t="n">
-        <v>3415.669872331203</v>
+        <v>3538.219343959465</v>
       </c>
       <c r="AD8" t="n">
-        <v>2759778.624875435</v>
+        <v>2858795.633231288</v>
       </c>
       <c r="AE8" t="n">
-        <v>3776050.867394831</v>
+        <v>3911530.306549425</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.049083852413564e-06</v>
+        <v>1.843198944666103e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.36944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>3415669.872331203</v>
+        <v>3538219.343959465</v>
       </c>
     </row>
     <row r="9">
@@ -43623,28 +43623,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2656.56072185272</v>
+        <v>2755.577730208573</v>
       </c>
       <c r="AB9" t="n">
-        <v>3634.823578826643</v>
+        <v>3770.303017981238</v>
       </c>
       <c r="AC9" t="n">
-        <v>3287.921117970225</v>
+        <v>3410.470589598488</v>
       </c>
       <c r="AD9" t="n">
-        <v>2656560.72185272</v>
+        <v>2755577.730208573</v>
       </c>
       <c r="AE9" t="n">
-        <v>3634823.578826644</v>
+        <v>3770303.017981238</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.061855040408625e-06</v>
+        <v>1.865637418178466e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.125</v>
       </c>
       <c r="AH9" t="n">
-        <v>3287921.117970225</v>
+        <v>3410470.589598488</v>
       </c>
     </row>
     <row r="10">
@@ -43729,28 +43729,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2555.514814772177</v>
+        <v>2664.356618735096</v>
       </c>
       <c r="AB10" t="n">
-        <v>3496.568110928235</v>
+        <v>3645.490268871808</v>
       </c>
       <c r="AC10" t="n">
-        <v>3162.860557885278</v>
+        <v>3297.569794088271</v>
       </c>
       <c r="AD10" t="n">
-        <v>2555514.814772177</v>
+        <v>2664356.618735095</v>
       </c>
       <c r="AE10" t="n">
-        <v>3496568.110928235</v>
+        <v>3645490.268871808</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.071702703440962e-06</v>
+        <v>1.882939373657878e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.94166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3162860.557885278</v>
+        <v>3297569.794088271</v>
       </c>
     </row>
     <row r="11">
@@ -43835,28 +43835,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2488.478949696602</v>
+        <v>2597.320753659521</v>
       </c>
       <c r="AB11" t="n">
-        <v>3404.846682918183</v>
+        <v>3553.768840861757</v>
       </c>
       <c r="AC11" t="n">
-        <v>3079.892894232677</v>
+        <v>3214.60213043567</v>
       </c>
       <c r="AD11" t="n">
-        <v>2488478.949696602</v>
+        <v>2597320.75365952</v>
       </c>
       <c r="AE11" t="n">
-        <v>3404846.682918184</v>
+        <v>3553768.840861757</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.078472971775692e-06</v>
+        <v>1.894834468049973e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.81527777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>3079892.894232677</v>
+        <v>3214602.13043567</v>
       </c>
     </row>
     <row r="12">
@@ -43941,28 +43941,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2465.063805150243</v>
+        <v>2564.166064852117</v>
       </c>
       <c r="AB12" t="n">
-        <v>3372.809049146583</v>
+        <v>3508.405132953827</v>
       </c>
       <c r="AC12" t="n">
-        <v>3050.912887263137</v>
+        <v>3173.567871142111</v>
       </c>
       <c r="AD12" t="n">
-        <v>2465063.805150243</v>
+        <v>2564166.064852118</v>
       </c>
       <c r="AE12" t="n">
-        <v>3372809.049146583</v>
+        <v>3508405.132953827</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.080781017798896e-06</v>
+        <v>1.89888961386546e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.77361111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>3050912.887263137</v>
+        <v>3173567.871142111</v>
       </c>
     </row>
     <row r="13">
@@ -44047,28 +44047,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2471.132550114601</v>
+        <v>2570.234809816474</v>
       </c>
       <c r="AB13" t="n">
-        <v>3381.112573740949</v>
+        <v>3516.708657548193</v>
       </c>
       <c r="AC13" t="n">
-        <v>3058.423935124286</v>
+        <v>3181.078919003261</v>
       </c>
       <c r="AD13" t="n">
-        <v>2471132.550114601</v>
+        <v>2570234.809816475</v>
       </c>
       <c r="AE13" t="n">
-        <v>3381112.573740949</v>
+        <v>3516708.657548193</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.081088757268657e-06</v>
+        <v>1.899430299974192e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.76944444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>3058423.935124286</v>
+        <v>3181078.919003261</v>
       </c>
     </row>
     <row r="14">
@@ -44153,28 +44153,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2483.661602460049</v>
+        <v>2582.763862161923</v>
       </c>
       <c r="AB14" t="n">
-        <v>3398.255375902771</v>
+        <v>3533.851459710015</v>
       </c>
       <c r="AC14" t="n">
-        <v>3073.930652307858</v>
+        <v>3196.585636186832</v>
       </c>
       <c r="AD14" t="n">
-        <v>2483661.60246005</v>
+        <v>2582763.862161923</v>
       </c>
       <c r="AE14" t="n">
-        <v>3398255.375902771</v>
+        <v>3533851.459710015</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.081088757268657e-06</v>
+        <v>1.899430299974192e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.76944444444445</v>
       </c>
       <c r="AH14" t="n">
-        <v>3073930.652307858</v>
+        <v>3196585.636186832</v>
       </c>
     </row>
   </sheetData>
@@ -44450,28 +44450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>14831.30017929303</v>
+        <v>15097.74973281212</v>
       </c>
       <c r="AB2" t="n">
-        <v>20292.83921609486</v>
+        <v>20657.40725014438</v>
       </c>
       <c r="AC2" t="n">
-        <v>18356.11912248872</v>
+        <v>18685.89329504298</v>
       </c>
       <c r="AD2" t="n">
-        <v>14831300.17929303</v>
+        <v>15097749.73281212</v>
       </c>
       <c r="AE2" t="n">
-        <v>20292839.21609486</v>
+        <v>20657407.25014438</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.205044200129496e-07</v>
+        <v>7.1901569620225e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.97361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>18356119.12248872</v>
+        <v>18685893.29504298</v>
       </c>
     </row>
     <row r="3">
@@ -44556,28 +44556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5677.520433808423</v>
+        <v>5821.045877276221</v>
       </c>
       <c r="AB3" t="n">
-        <v>7768.233932061065</v>
+        <v>7964.6117757094</v>
       </c>
       <c r="AC3" t="n">
-        <v>7026.844588369662</v>
+        <v>7204.480406238228</v>
       </c>
       <c r="AD3" t="n">
-        <v>5677520.433808424</v>
+        <v>5821045.877276221</v>
       </c>
       <c r="AE3" t="n">
-        <v>7768233.932061065</v>
+        <v>7964611.7757094</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.311379742890882e-07</v>
+        <v>1.250164456267029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.16388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>7026844.588369662</v>
+        <v>7204480.406238228</v>
       </c>
     </row>
     <row r="4">
@@ -44662,28 +44662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4448.867899576127</v>
+        <v>4571.877529499094</v>
       </c>
       <c r="AB4" t="n">
-        <v>6087.13733040008</v>
+        <v>6255.44453286256</v>
       </c>
       <c r="AC4" t="n">
-        <v>5506.189486937366</v>
+        <v>5658.433686217463</v>
       </c>
       <c r="AD4" t="n">
-        <v>4448867.899576128</v>
+        <v>4571877.529499094</v>
       </c>
       <c r="AE4" t="n">
-        <v>6087137.330400079</v>
+        <v>6255444.53286256</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.448639581219275e-07</v>
+        <v>1.444623214725113e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.37638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>5506189.486937366</v>
+        <v>5658433.686217464</v>
       </c>
     </row>
     <row r="5">
@@ -44768,28 +44768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3945.105598242069</v>
+        <v>4068.115138656484</v>
       </c>
       <c r="AB5" t="n">
-        <v>5397.867525290568</v>
+        <v>5566.1746052835</v>
       </c>
       <c r="AC5" t="n">
-        <v>4882.702624631286</v>
+        <v>5034.946713130154</v>
       </c>
       <c r="AD5" t="n">
-        <v>3945105.598242069</v>
+        <v>4068115.138656484</v>
       </c>
       <c r="AE5" t="n">
-        <v>5397867.525290567</v>
+        <v>5566174.6052835</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.050631099291412e-07</v>
+        <v>1.547557055577762e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.75555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>4882702.624631287</v>
+        <v>5034946.713130155</v>
       </c>
     </row>
     <row r="6">
@@ -44874,28 +44874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3669.667939654837</v>
+        <v>3792.592139214681</v>
       </c>
       <c r="AB6" t="n">
-        <v>5021.001569359606</v>
+        <v>5189.191882230339</v>
       </c>
       <c r="AC6" t="n">
-        <v>4541.804226599698</v>
+        <v>4693.942692066627</v>
       </c>
       <c r="AD6" t="n">
-        <v>3669667.939654837</v>
+        <v>3792592.139214681</v>
       </c>
       <c r="AE6" t="n">
-        <v>5021001.569359606</v>
+        <v>5189191.882230339</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.418350056143356e-07</v>
+        <v>1.610432899251302e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.86388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>4541804.226599698</v>
+        <v>4693942.692066628</v>
       </c>
     </row>
     <row r="7">
@@ -44980,28 +44980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3492.90410897534</v>
+        <v>3605.570491271319</v>
       </c>
       <c r="AB7" t="n">
-        <v>4779.145497954067</v>
+        <v>4933.300612701422</v>
       </c>
       <c r="AC7" t="n">
-        <v>4323.030559201985</v>
+        <v>4462.473326155909</v>
       </c>
       <c r="AD7" t="n">
-        <v>3492904.10897534</v>
+        <v>3605570.491271319</v>
       </c>
       <c r="AE7" t="n">
-        <v>4779145.497954067</v>
+        <v>4933300.612701423</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.668932732385205e-07</v>
+        <v>1.653279744335286e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.29861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>4323030.559201985</v>
+        <v>4462473.326155908</v>
       </c>
     </row>
     <row r="8">
@@ -45086,28 +45086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3352.096122241254</v>
+        <v>3464.847755883254</v>
       </c>
       <c r="AB8" t="n">
-        <v>4586.485798494527</v>
+        <v>4740.757557894531</v>
       </c>
       <c r="AC8" t="n">
-        <v>4148.758031059284</v>
+        <v>4288.30631026392</v>
       </c>
       <c r="AD8" t="n">
-        <v>3352096.122241254</v>
+        <v>3464847.755883254</v>
       </c>
       <c r="AE8" t="n">
-        <v>4586485.798494526</v>
+        <v>4740757.557894531</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.852792210811176e-07</v>
+        <v>1.684717666172056e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.90138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>4148758.031059284</v>
+        <v>4288306.31026392</v>
       </c>
     </row>
     <row r="9">
@@ -45192,28 +45192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3244.677289675439</v>
+        <v>3357.428923317439</v>
       </c>
       <c r="AB9" t="n">
-        <v>4439.510612793539</v>
+        <v>4593.782372193543</v>
       </c>
       <c r="AC9" t="n">
-        <v>4015.809950800635</v>
+        <v>4155.35823000527</v>
       </c>
       <c r="AD9" t="n">
-        <v>3244677.289675439</v>
+        <v>3357428.923317438</v>
       </c>
       <c r="AE9" t="n">
-        <v>4439510.612793539</v>
+        <v>4593782.372193543</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.996617770547625e-07</v>
+        <v>1.709310234060497e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.6</v>
       </c>
       <c r="AH9" t="n">
-        <v>4015809.950800635</v>
+        <v>4155358.23000527</v>
       </c>
     </row>
     <row r="10">
@@ -45298,28 +45298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3158.339700149706</v>
+        <v>3260.833516527841</v>
       </c>
       <c r="AB10" t="n">
-        <v>4321.379713858796</v>
+        <v>4461.616275135421</v>
       </c>
       <c r="AC10" t="n">
-        <v>3908.95329906247</v>
+        <v>4035.805879754098</v>
       </c>
       <c r="AD10" t="n">
-        <v>3158339.700149706</v>
+        <v>3260833.516527841</v>
       </c>
       <c r="AE10" t="n">
-        <v>4321379.713858796</v>
+        <v>4461616.275135421</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.010634036251151e-06</v>
+        <v>1.728071574511472e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.37777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>3908953.29906247</v>
+        <v>4035805.879754099</v>
       </c>
     </row>
     <row r="11">
@@ -45404,28 +45404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3084.329895841005</v>
+        <v>3186.82371221914</v>
       </c>
       <c r="AB11" t="n">
-        <v>4220.116234521498</v>
+        <v>4360.352795798123</v>
       </c>
       <c r="AC11" t="n">
-        <v>3817.354264068942</v>
+        <v>3944.206844760571</v>
       </c>
       <c r="AD11" t="n">
-        <v>3084329.895841005</v>
+        <v>3186823.71221914</v>
       </c>
       <c r="AE11" t="n">
-        <v>4220116.234521498</v>
+        <v>4360352.795798123</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.019233915080753e-06</v>
+        <v>1.742776408918994e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.20416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3817354.264068942</v>
+        <v>3944206.844760571</v>
       </c>
     </row>
     <row r="12">
@@ -45510,28 +45510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3006.317786522435</v>
+        <v>3108.811602900569</v>
       </c>
       <c r="AB12" t="n">
-        <v>4113.376624900459</v>
+        <v>4253.613186177085</v>
       </c>
       <c r="AC12" t="n">
-        <v>3720.801732980157</v>
+        <v>3847.654313671785</v>
       </c>
       <c r="AD12" t="n">
-        <v>3006317.786522435</v>
+        <v>3108811.602900569</v>
       </c>
       <c r="AE12" t="n">
-        <v>4113376.624900459</v>
+        <v>4253613.186177084</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.026795877499886e-06</v>
+        <v>1.755706521932504e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.05416666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>3720801.732980157</v>
+        <v>3847654.313671784</v>
       </c>
     </row>
     <row r="13">
@@ -45616,28 +45616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2938.516604664005</v>
+        <v>3051.182897451433</v>
       </c>
       <c r="AB13" t="n">
-        <v>4020.608056704715</v>
+        <v>4174.763048982521</v>
       </c>
       <c r="AC13" t="n">
-        <v>3636.886866731514</v>
+        <v>3776.329522904211</v>
       </c>
       <c r="AD13" t="n">
-        <v>2938516.604664005</v>
+        <v>3051182.897451433</v>
       </c>
       <c r="AE13" t="n">
-        <v>4020608.056704715</v>
+        <v>4174763.048982521</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.032875102189777e-06</v>
+        <v>1.766101318668855e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.9375</v>
       </c>
       <c r="AH13" t="n">
-        <v>3636886.866731514</v>
+        <v>3776329.522904211</v>
       </c>
     </row>
     <row r="14">
@@ -45722,28 +45722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2883.337440669157</v>
+        <v>2996.003733456586</v>
       </c>
       <c r="AB14" t="n">
-        <v>3945.109490194052</v>
+        <v>4099.264482471857</v>
       </c>
       <c r="AC14" t="n">
-        <v>3568.593777445727</v>
+        <v>3708.036433618424</v>
       </c>
       <c r="AD14" t="n">
-        <v>2883337.440669158</v>
+        <v>2996003.733456586</v>
       </c>
       <c r="AE14" t="n">
-        <v>3945109.490194052</v>
+        <v>4099264.482471858</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.037768136696274e-06</v>
+        <v>1.774467862383479e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.84305555555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>3568593.777445727</v>
+        <v>3708036.433618424</v>
       </c>
     </row>
     <row r="15">
@@ -45828,28 +45828,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2821.858265770702</v>
+        <v>2924.437333494859</v>
       </c>
       <c r="AB15" t="n">
-        <v>3860.990970828207</v>
+        <v>4001.344176757481</v>
       </c>
       <c r="AC15" t="n">
-        <v>3492.503411507078</v>
+        <v>3619.46150444942</v>
       </c>
       <c r="AD15" t="n">
-        <v>2821858.265770703</v>
+        <v>2924437.333494859</v>
       </c>
       <c r="AE15" t="n">
-        <v>3860990.970828207</v>
+        <v>4001344.176757481</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.042512897429848e-06</v>
+        <v>1.782580874470387e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.75277777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>3492503.411507078</v>
+        <v>3619461.50444942</v>
       </c>
     </row>
     <row r="16">
@@ -45934,28 +45934,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2772.125399924633</v>
+        <v>2874.704467648789</v>
       </c>
       <c r="AB16" t="n">
-        <v>3792.944269718417</v>
+        <v>3933.297475647691</v>
       </c>
       <c r="AC16" t="n">
-        <v>3430.950992047065</v>
+        <v>3557.909084989406</v>
       </c>
       <c r="AD16" t="n">
-        <v>2772125.399924633</v>
+        <v>2874704.467648788</v>
       </c>
       <c r="AE16" t="n">
-        <v>3792944.269718417</v>
+        <v>3933297.475647691</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.046071467980028e-06</v>
+        <v>1.788665633535569e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.68611111111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>3430950.992047065</v>
+        <v>3557909.084989406</v>
       </c>
     </row>
     <row r="17">
@@ -46040,28 +46040,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2758.590515935442</v>
+        <v>2861.169583659597</v>
       </c>
       <c r="AB17" t="n">
-        <v>3774.425244327465</v>
+        <v>3914.77845025674</v>
       </c>
       <c r="AC17" t="n">
-        <v>3414.199396447811</v>
+        <v>3541.157489390152</v>
       </c>
       <c r="AD17" t="n">
-        <v>2758590.515935442</v>
+        <v>2861169.583659597</v>
       </c>
       <c r="AE17" t="n">
-        <v>3774425.244327466</v>
+        <v>3914778.45025674</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.046961110617573e-06</v>
+        <v>1.790186823301864e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.66805555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>3414199.396447811</v>
+        <v>3541157.489390152</v>
       </c>
     </row>
     <row r="18">
@@ -46146,28 +46146,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2770.368806079702</v>
+        <v>2872.947873803858</v>
       </c>
       <c r="AB18" t="n">
-        <v>3790.540820524332</v>
+        <v>3930.894026453606</v>
       </c>
       <c r="AC18" t="n">
-        <v>3428.776924670801</v>
+        <v>3555.735017613142</v>
       </c>
       <c r="AD18" t="n">
-        <v>2770368.806079702</v>
+        <v>2872947.873803858</v>
       </c>
       <c r="AE18" t="n">
-        <v>3790540.820524332</v>
+        <v>3930894.026453606</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.04755420570927e-06</v>
+        <v>1.791200949812728e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.65833333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>3428776.924670801</v>
+        <v>3555735.017613142</v>
       </c>
     </row>
     <row r="19">
@@ -46252,28 +46252,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2781.80577717697</v>
+        <v>2884.384844901126</v>
       </c>
       <c r="AB19" t="n">
-        <v>3806.189388943169</v>
+        <v>3946.542594872443</v>
       </c>
       <c r="AC19" t="n">
-        <v>3442.932015682648</v>
+        <v>3569.890108624988</v>
       </c>
       <c r="AD19" t="n">
-        <v>2781805.77717697</v>
+        <v>2884384.844901126</v>
       </c>
       <c r="AE19" t="n">
-        <v>3806189.388943169</v>
+        <v>3946542.594872443</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.04755420570927e-06</v>
+        <v>1.791200949812728e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.65972222222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>3442932.015682648</v>
+        <v>3569890.108624988</v>
       </c>
     </row>
     <row r="20">
@@ -46358,28 +46358,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2793.667680647612</v>
+        <v>2896.246748371768</v>
       </c>
       <c r="AB20" t="n">
-        <v>3822.41936858195</v>
+        <v>3962.772574511224</v>
       </c>
       <c r="AC20" t="n">
-        <v>3457.613028843622</v>
+        <v>3584.571121785963</v>
       </c>
       <c r="AD20" t="n">
-        <v>2793667.680647612</v>
+        <v>2896246.748371768</v>
       </c>
       <c r="AE20" t="n">
-        <v>3822419.36858195</v>
+        <v>3962772.574511224</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.047405931936346e-06</v>
+        <v>1.790947418185012e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.66111111111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>3457613.028843622</v>
+        <v>3584571.121785963</v>
       </c>
     </row>
   </sheetData>
@@ -46655,28 +46655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1356.600850443362</v>
+        <v>1454.255992044329</v>
       </c>
       <c r="AB2" t="n">
-        <v>1856.161132582199</v>
+        <v>1989.777205561429</v>
       </c>
       <c r="AC2" t="n">
-        <v>1679.011719227065</v>
+        <v>1799.875661732493</v>
       </c>
       <c r="AD2" t="n">
-        <v>1356600.850443362</v>
+        <v>1454255.992044329</v>
       </c>
       <c r="AE2" t="n">
-        <v>1856161.132582199</v>
+        <v>1989777.205561429</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.1246579305865e-06</v>
+        <v>2.410659951962056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.53055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>1679011.719227065</v>
+        <v>1799875.661732493</v>
       </c>
     </row>
   </sheetData>
@@ -46952,28 +46952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4917.10046304112</v>
+        <v>5067.067025787818</v>
       </c>
       <c r="AB2" t="n">
-        <v>6727.793780695723</v>
+        <v>6932.984647903579</v>
       </c>
       <c r="AC2" t="n">
-        <v>6085.702584783745</v>
+        <v>6271.310323612465</v>
       </c>
       <c r="AD2" t="n">
-        <v>4917100.46304112</v>
+        <v>5067067.025787818</v>
       </c>
       <c r="AE2" t="n">
-        <v>6727793.780695723</v>
+        <v>6932984.647903578</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.395845435685528e-07</v>
+        <v>1.362634625530763e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6085702.584783745</v>
+        <v>6271310.323612466</v>
       </c>
     </row>
     <row r="3">
@@ -47058,28 +47058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2985.392391402522</v>
+        <v>3097.760726902883</v>
       </c>
       <c r="AB3" t="n">
-        <v>4084.745576134114</v>
+        <v>4238.492890106808</v>
       </c>
       <c r="AC3" t="n">
-        <v>3694.903191324143</v>
+        <v>3833.977077436986</v>
       </c>
       <c r="AD3" t="n">
-        <v>2985392.391402522</v>
+        <v>3097760.726902883</v>
       </c>
       <c r="AE3" t="n">
-        <v>4084745.576134114</v>
+        <v>4238492.890106807</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.735930776674125e-07</v>
+        <v>1.793779562246502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.29722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>3694903.191324143</v>
+        <v>3833977.077436986</v>
       </c>
     </row>
     <row r="4">
@@ -47164,28 +47164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2532.742112244089</v>
+        <v>2635.73220376937</v>
       </c>
       <c r="AB4" t="n">
-        <v>3465.409494668573</v>
+        <v>3606.325081495637</v>
       </c>
       <c r="AC4" t="n">
-        <v>3134.675676230047</v>
+        <v>3262.142477226599</v>
       </c>
       <c r="AD4" t="n">
-        <v>2532742.112244089</v>
+        <v>2635732.20376937</v>
       </c>
       <c r="AE4" t="n">
-        <v>3465409.494668573</v>
+        <v>3606325.081495637</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.05540624974245e-06</v>
+        <v>1.944514812277616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.49027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>3134675.676230046</v>
+        <v>3262142.477226599</v>
       </c>
     </row>
     <row r="5">
@@ -47270,28 +47270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2300.045812177302</v>
+        <v>2403.121155048604</v>
       </c>
       <c r="AB5" t="n">
-        <v>3147.024151080944</v>
+        <v>3288.056382560659</v>
       </c>
       <c r="AC5" t="n">
-        <v>2846.676582977797</v>
+        <v>2974.248896225062</v>
       </c>
       <c r="AD5" t="n">
-        <v>2300045.812177302</v>
+        <v>2403121.155048604</v>
       </c>
       <c r="AE5" t="n">
-        <v>3147024.151080944</v>
+        <v>3288056.382560659</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.096884384886281e-06</v>
+        <v>2.020935477962053e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.67638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2846676.582977797</v>
+        <v>2974248.896225062</v>
       </c>
     </row>
     <row r="6">
@@ -47376,28 +47376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2141.831147963853</v>
+        <v>2235.528336368629</v>
       </c>
       <c r="AB6" t="n">
-        <v>2930.547867565556</v>
+        <v>3058.748494369363</v>
       </c>
       <c r="AC6" t="n">
-        <v>2650.860492134864</v>
+        <v>2766.825831047109</v>
       </c>
       <c r="AD6" t="n">
-        <v>2141831.147963853</v>
+        <v>2235528.336368629</v>
       </c>
       <c r="AE6" t="n">
-        <v>2930547.867565556</v>
+        <v>3058748.494369362</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.121869245819377e-06</v>
+        <v>2.066968398630237e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.21666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2650860.492134864</v>
+        <v>2766825.831047109</v>
       </c>
     </row>
     <row r="7">
@@ -47482,28 +47482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2094.269573950403</v>
+        <v>2187.966762355176</v>
       </c>
       <c r="AB7" t="n">
-        <v>2865.472023731797</v>
+        <v>2993.672650535423</v>
       </c>
       <c r="AC7" t="n">
-        <v>2591.995395502078</v>
+        <v>2707.960734414276</v>
       </c>
       <c r="AD7" t="n">
-        <v>2094269.573950403</v>
+        <v>2187966.762355176</v>
       </c>
       <c r="AE7" t="n">
-        <v>2865472.023731797</v>
+        <v>2993672.650535423</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.129707633563093e-06</v>
+        <v>2.081410099232021e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.07777777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>2591995.395502078</v>
+        <v>2707960.734414276</v>
       </c>
     </row>
     <row r="8">
@@ -47588,28 +47588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2105.798410511853</v>
+        <v>2199.49559891663</v>
       </c>
       <c r="AB8" t="n">
-        <v>2881.246286531547</v>
+        <v>3009.44691333535</v>
       </c>
       <c r="AC8" t="n">
-        <v>2606.264184799536</v>
+        <v>2722.229523711781</v>
       </c>
       <c r="AD8" t="n">
-        <v>2105798.410511854</v>
+        <v>2199495.59891663</v>
       </c>
       <c r="AE8" t="n">
-        <v>2881246.286531547</v>
+        <v>3009446.913335349</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.130034233052414e-06</v>
+        <v>2.082011836757094e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.07083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2606264.184799537</v>
+        <v>2722229.523711781</v>
       </c>
     </row>
     <row r="9">
@@ -47694,28 +47694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2119.534324824034</v>
+        <v>2213.23151322881</v>
       </c>
       <c r="AB9" t="n">
-        <v>2900.040370479243</v>
+        <v>3028.240997283047</v>
       </c>
       <c r="AC9" t="n">
-        <v>2623.264587752928</v>
+        <v>2739.229926665172</v>
       </c>
       <c r="AD9" t="n">
-        <v>2119534.324824034</v>
+        <v>2213231.51322881</v>
       </c>
       <c r="AE9" t="n">
-        <v>2900040.370479243</v>
+        <v>3028240.997283047</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.129870933307754e-06</v>
+        <v>2.081710967994557e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.07222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>2623264.587752928</v>
+        <v>2739229.926665172</v>
       </c>
     </row>
   </sheetData>
@@ -47991,28 +47991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7176.553252272503</v>
+        <v>7351.230416408153</v>
       </c>
       <c r="AB2" t="n">
-        <v>9819.276766944275</v>
+        <v>10058.27776912729</v>
       </c>
       <c r="AC2" t="n">
-        <v>8882.138773748242</v>
+        <v>9098.329855722915</v>
       </c>
       <c r="AD2" t="n">
-        <v>7176553.252272503</v>
+        <v>7351230.416408153</v>
       </c>
       <c r="AE2" t="n">
-        <v>9819276.766944274</v>
+        <v>10058277.76912729</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.152122362071559e-07</v>
+        <v>1.099031762852897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.49027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>8882138.773748241</v>
+        <v>9098329.855722915</v>
       </c>
     </row>
     <row r="3">
@@ -48097,28 +48097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3804.206832686614</v>
+        <v>3930.400426963773</v>
       </c>
       <c r="AB3" t="n">
-        <v>5205.083618242752</v>
+        <v>5377.747261201232</v>
       </c>
       <c r="AC3" t="n">
-        <v>4708.317743098207</v>
+        <v>4864.502610307668</v>
       </c>
       <c r="AD3" t="n">
-        <v>3804206.832686614</v>
+        <v>3930400.426963774</v>
       </c>
       <c r="AE3" t="n">
-        <v>5205083.618242752</v>
+        <v>5377747.261201232</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.809185176255289e-07</v>
+        <v>1.573696643819265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.78888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>4708317.743098207</v>
+        <v>4864502.610307668</v>
       </c>
     </row>
     <row r="4">
@@ -48203,28 +48203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3167.278655203967</v>
+        <v>3274.044810507872</v>
       </c>
       <c r="AB4" t="n">
-        <v>4333.610386522901</v>
+        <v>4479.692550400056</v>
       </c>
       <c r="AC4" t="n">
-        <v>3920.01669349337</v>
+        <v>4052.156980677688</v>
       </c>
       <c r="AD4" t="n">
-        <v>3167278.655203966</v>
+        <v>3274044.810507872</v>
       </c>
       <c r="AE4" t="n">
-        <v>4333610.3865229</v>
+        <v>4479692.550400056</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.739943274478229e-07</v>
+        <v>1.739969785554229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.41805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>3920016.69349337</v>
+        <v>4052156.980677688</v>
       </c>
     </row>
     <row r="5">
@@ -48309,28 +48309,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2871.618329977505</v>
+        <v>2978.29914442684</v>
       </c>
       <c r="AB5" t="n">
-        <v>3929.074885935057</v>
+        <v>4075.040282690014</v>
       </c>
       <c r="AC5" t="n">
-        <v>3554.089493312503</v>
+        <v>3686.124157464883</v>
       </c>
       <c r="AD5" t="n">
-        <v>2871618.329977505</v>
+        <v>2978299.144426839</v>
       </c>
       <c r="AE5" t="n">
-        <v>3929074.885935057</v>
+        <v>4075040.282690014</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.022576126831419e-06</v>
+        <v>1.826757624736837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3554089.493312503</v>
+        <v>3686124.157464883</v>
       </c>
     </row>
     <row r="6">
@@ -48415,28 +48415,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2682.099080479653</v>
+        <v>2788.865146275007</v>
       </c>
       <c r="AB6" t="n">
-        <v>3669.766287772882</v>
+        <v>3815.848329180489</v>
       </c>
       <c r="AC6" t="n">
-        <v>3319.528943817033</v>
+        <v>3451.669120220125</v>
       </c>
       <c r="AD6" t="n">
-        <v>2682099.080479653</v>
+        <v>2788865.146275007</v>
       </c>
       <c r="AE6" t="n">
-        <v>3669766.287772882</v>
+        <v>3815848.329180489</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.052133985356066e-06</v>
+        <v>1.879560581909427e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.75416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3319528.943817033</v>
+        <v>3451669.120220126</v>
       </c>
     </row>
     <row r="7">
@@ -48521,28 +48521,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2547.715059451082</v>
+        <v>2644.767450514085</v>
       </c>
       <c r="AB7" t="n">
-        <v>3485.896141596992</v>
+        <v>3618.687504698711</v>
       </c>
       <c r="AC7" t="n">
-        <v>3153.207106328806</v>
+        <v>3273.325048109941</v>
       </c>
       <c r="AD7" t="n">
-        <v>2547715.059451082</v>
+        <v>2644767.450514085</v>
       </c>
       <c r="AE7" t="n">
-        <v>3485896.141596993</v>
+        <v>3618687.504698711</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.07241570742883e-06</v>
+        <v>1.915792398267215e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.36111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>3153207.106328806</v>
+        <v>3273325.048109941</v>
       </c>
     </row>
     <row r="8">
@@ -48627,28 +48627,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2439.365128513309</v>
+        <v>2536.417519576311</v>
       </c>
       <c r="AB8" t="n">
-        <v>3337.64698602633</v>
+        <v>3470.438349128048</v>
       </c>
       <c r="AC8" t="n">
-        <v>3019.106642096816</v>
+        <v>3139.224583877951</v>
       </c>
       <c r="AD8" t="n">
-        <v>2439365.128513309</v>
+        <v>2536417.519576312</v>
       </c>
       <c r="AE8" t="n">
-        <v>3337646.986026329</v>
+        <v>3470438.349128048</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.086722968735973e-06</v>
+        <v>1.941351276473096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.09305555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>3019106.642096817</v>
+        <v>3139224.583877951</v>
       </c>
     </row>
     <row r="9">
@@ -48733,28 +48733,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2338.337121621214</v>
+        <v>2445.017846561997</v>
       </c>
       <c r="AB9" t="n">
-        <v>3199.416009955456</v>
+        <v>3345.381284240865</v>
       </c>
       <c r="AC9" t="n">
-        <v>2894.068236373759</v>
+        <v>3026.102789744912</v>
       </c>
       <c r="AD9" t="n">
-        <v>2338337.121621214</v>
+        <v>2445017.846561997</v>
       </c>
       <c r="AE9" t="n">
-        <v>3199416.009955456</v>
+        <v>3345381.284240865</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.096785218446491e-06</v>
+        <v>1.959326751255254e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.90833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2894068.236373759</v>
+        <v>3026102.789744912</v>
       </c>
     </row>
     <row r="10">
@@ -48839,28 +48839,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2315.01529809878</v>
+        <v>2421.696023039563</v>
       </c>
       <c r="AB10" t="n">
-        <v>3167.506062125821</v>
+        <v>3313.471336411231</v>
       </c>
       <c r="AC10" t="n">
-        <v>2865.203729179092</v>
+        <v>2997.238282550245</v>
       </c>
       <c r="AD10" t="n">
-        <v>2315015.29809878</v>
+        <v>2421696.023039563</v>
       </c>
       <c r="AE10" t="n">
-        <v>3167506.062125821</v>
+        <v>3313471.336411231</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.099772448829301e-06</v>
+        <v>1.964663220331208e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.85694444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>2865203.729179092</v>
+        <v>2997238.282550246</v>
       </c>
     </row>
     <row r="11">
@@ -48945,28 +48945,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2326.67356192681</v>
+        <v>2433.354286867592</v>
       </c>
       <c r="AB11" t="n">
-        <v>3183.457413021632</v>
+        <v>3329.422687307042</v>
       </c>
       <c r="AC11" t="n">
-        <v>2879.632705533269</v>
+        <v>3011.667258904421</v>
       </c>
       <c r="AD11" t="n">
-        <v>2326673.56192681</v>
+        <v>2433354.286867592</v>
       </c>
       <c r="AE11" t="n">
-        <v>3183457.413021632</v>
+        <v>3329422.687307042</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.099615226177574e-06</v>
+        <v>1.964382353537737e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.85833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2879632.705533268</v>
+        <v>3011667.258904422</v>
       </c>
     </row>
   </sheetData>
